--- a/Grid_5x5/Solutions/Solution_NDP_S065/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S065/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2706,7 +2706,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.23467557228393093</v>
+        <v>0.23467557228393104</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2727,7 +2727,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>1.0135869047619046</v>
+        <v>1.0135869047619044</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2747,7 +2747,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>1.8113142857142857</v>
+        <v>1.8113142857142859</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -8439,13 +8439,13 @@
         <v>69.814999999999998</v>
       </c>
       <c r="L11" s="72">
-        <v>90.83099999999996</v>
+        <v>90.830999999999989</v>
       </c>
       <c r="M11" s="72">
         <v>33.438000000000002</v>
       </c>
       <c r="N11" s="72">
-        <v>160.64599999999996</v>
+        <v>160.64599999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -8486,7 +8486,7 @@
         <v>144.857</v>
       </c>
       <c r="M12" s="72">
-        <v>15.789000000000001</v>
+        <v>15.789</v>
       </c>
       <c r="N12" s="72">
         <v>233.14400000000001</v>
@@ -8647,13 +8647,13 @@
         <v>22.339000000000002</v>
       </c>
       <c r="L16" s="72">
-        <v>106.53700000000001</v>
+        <v>106.53699999999998</v>
       </c>
       <c r="M16" s="72">
         <v>9.5489999999999995</v>
       </c>
       <c r="N16" s="72">
-        <v>128.876</v>
+        <v>128.87599999999998</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -8735,13 +8735,13 @@
         <v>34.129000000000005</v>
       </c>
       <c r="L18" s="72">
-        <v>124.81699999999999</v>
+        <v>124.81700000000002</v>
       </c>
       <c r="M18" s="72">
-        <v>33.826999999999998</v>
+        <v>33.827000000000005</v>
       </c>
       <c r="N18" s="72">
-        <v>158.946</v>
+        <v>158.94600000000003</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -8785,7 +8785,7 @@
         <v>88.037000000000006</v>
       </c>
       <c r="N19" s="72">
-        <v>100.887</v>
+        <v>100.88699999999999</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -10790,7 +10790,7 @@
         <v>40.755000000000003</v>
       </c>
       <c r="M66" s="72">
-        <v>28.635999999999999</v>
+        <v>28.636000000000003</v>
       </c>
       <c r="N66" s="72">
         <v>45.789000000000001</v>
@@ -10828,16 +10828,16 @@
         <v>70</v>
       </c>
       <c r="K67" s="72">
-        <v>10.068000000000001</v>
+        <v>10.068</v>
       </c>
       <c r="L67" s="72">
-        <v>33.906000000000006</v>
+        <v>33.905999999999999</v>
       </c>
       <c r="M67" s="72">
         <v>11.882999999999999</v>
       </c>
       <c r="N67" s="72">
-        <v>43.974000000000004</v>
+        <v>43.973999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="72">
-        <v>43.974000000000004</v>
+        <v>43.973999999999997</v>
       </c>
       <c r="N68" s="72">
         <v>0</v>
@@ -10948,16 +10948,16 @@
         <v>70</v>
       </c>
       <c r="K70" s="72">
-        <v>37.159000000000006</v>
+        <v>37.158999999999999</v>
       </c>
       <c r="L70" s="72">
-        <v>27.864999999999995</v>
+        <v>27.864999999999988</v>
       </c>
       <c r="M70" s="72">
         <v>3.452</v>
       </c>
       <c r="N70" s="72">
-        <v>65.024000000000001</v>
+        <v>65.023999999999987</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -11042,7 +11042,7 @@
         <v>63.637999999999991</v>
       </c>
       <c r="M72" s="72">
-        <v>11.331</v>
+        <v>11.331000000000001</v>
       </c>
       <c r="N72" s="72">
         <v>94.842999999999989</v>
@@ -11083,13 +11083,13 @@
         <v>26.015000000000001</v>
       </c>
       <c r="L73" s="72">
-        <v>30.540999999999997</v>
+        <v>30.541000000000004</v>
       </c>
       <c r="M73" s="72">
-        <v>64.302000000000007</v>
+        <v>64.301999999999992</v>
       </c>
       <c r="N73" s="72">
-        <v>56.555999999999997</v>
+        <v>56.556000000000004</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -12956,16 +12956,16 @@
         <v>70</v>
       </c>
       <c r="K117" s="72">
-        <v>56.457000000000001</v>
+        <v>56.456999999999994</v>
       </c>
       <c r="L117" s="72">
-        <v>80.043000000000006</v>
+        <v>80.043000000000035</v>
       </c>
       <c r="M117" s="72">
         <v>103.084</v>
       </c>
       <c r="N117" s="72">
-        <v>136.5</v>
+        <v>136.50000000000003</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -13003,13 +13003,13 @@
         <v>71.534999999999997</v>
       </c>
       <c r="L118" s="72">
-        <v>118.59899999999996</v>
+        <v>118.59900000000002</v>
       </c>
       <c r="M118" s="72">
-        <v>17.901000000000003</v>
+        <v>17.901</v>
       </c>
       <c r="N118" s="72">
-        <v>190.13399999999996</v>
+        <v>190.13400000000001</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -13047,13 +13047,13 @@
         <v>32.021999999999998</v>
       </c>
       <c r="L119" s="72">
-        <v>107.30800000000002</v>
+        <v>107.30799999999999</v>
       </c>
       <c r="M119" s="72">
-        <v>82.826000000000022</v>
+        <v>82.826000000000008</v>
       </c>
       <c r="N119" s="72">
-        <v>139.33000000000001</v>
+        <v>139.32999999999998</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -13091,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="72">
-        <v>139.33000000000001</v>
+        <v>139.32999999999998</v>
       </c>
       <c r="N120" s="72">
         <v>0</v>
@@ -13170,7 +13170,7 @@
         <v>90.339000000000013</v>
       </c>
       <c r="M122" s="72">
-        <v>28.395</v>
+        <v>28.395000000000003</v>
       </c>
       <c r="N122" s="72">
         <v>145.15200000000002</v>
@@ -14867,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="M162" s="72">
-        <v>111.48400000000001</v>
+        <v>111.48399999999999</v>
       </c>
       <c r="N162" s="72">
         <v>0</v>
@@ -14896,7 +14896,7 @@
         <v>70</v>
       </c>
       <c r="K163" s="72">
-        <v>113.17800000000001</v>
+        <v>113.178</v>
       </c>
       <c r="L163" s="72">
         <v>0</v>
@@ -14905,7 +14905,7 @@
         <v>0</v>
       </c>
       <c r="N163" s="72">
-        <v>113.17800000000001</v>
+        <v>113.178</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -14940,16 +14940,16 @@
         <v>70</v>
       </c>
       <c r="K164" s="72">
-        <v>77.329000000000008</v>
+        <v>77.328999999999994</v>
       </c>
       <c r="L164" s="72">
-        <v>87.22</v>
+        <v>87.219999999999985</v>
       </c>
       <c r="M164" s="72">
-        <v>25.958000000000002</v>
+        <v>25.957999999999998</v>
       </c>
       <c r="N164" s="72">
-        <v>164.54900000000001</v>
+        <v>164.54899999999998</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -14987,13 +14987,13 @@
         <v>68.431000000000012</v>
       </c>
       <c r="L165" s="72">
-        <v>112.19999999999999</v>
+        <v>112.20000000000002</v>
       </c>
       <c r="M165" s="72">
-        <v>52.349000000000004</v>
+        <v>52.348999999999997</v>
       </c>
       <c r="N165" s="72">
-        <v>180.631</v>
+        <v>180.63100000000003</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -15034,7 +15034,7 @@
         <v>53.977000000000004</v>
       </c>
       <c r="M166" s="72">
-        <v>126.654</v>
+        <v>126.65400000000001</v>
       </c>
       <c r="N166" s="72">
         <v>85.459000000000003</v>
@@ -15075,13 +15075,13 @@
         <v>40.054000000000002</v>
       </c>
       <c r="L167" s="72">
-        <v>66.023000000000025</v>
+        <v>66.022999999999996</v>
       </c>
       <c r="M167" s="72">
         <v>19.436</v>
       </c>
       <c r="N167" s="72">
-        <v>106.07700000000003</v>
+        <v>106.077</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -15122,7 +15122,7 @@
         <v>64.954000000000008</v>
       </c>
       <c r="M168" s="72">
-        <v>41.122999999999998</v>
+        <v>41.123000000000005</v>
       </c>
       <c r="N168" s="72">
         <v>87.167000000000002</v>
@@ -16678,7 +16678,7 @@
         <v>21.960999999999984</v>
       </c>
       <c r="M205" s="72">
-        <v>111.14600000000002</v>
+        <v>111.146</v>
       </c>
       <c r="N205" s="72">
         <v>96.807999999999993</v>
@@ -17876,13 +17876,13 @@
         <v>70</v>
       </c>
       <c r="K234" s="72">
-        <v>55.827000000000005</v>
+        <v>55.826999999999998</v>
       </c>
       <c r="L234" s="72">
         <v>76.63900000000001</v>
       </c>
       <c r="M234" s="72">
-        <v>52.156999999999996</v>
+        <v>52.157000000000004</v>
       </c>
       <c r="N234" s="72">
         <v>132.46600000000001</v>
@@ -17923,13 +17923,13 @@
         <v>59.57</v>
       </c>
       <c r="L235" s="72">
-        <v>32.948000000000015</v>
+        <v>32.948</v>
       </c>
       <c r="M235" s="72">
         <v>99.518000000000001</v>
       </c>
       <c r="N235" s="72">
-        <v>92.518000000000015</v>
+        <v>92.518000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
@@ -17967,13 +17967,13 @@
         <v>24.491</v>
       </c>
       <c r="L236" s="72">
-        <v>61.654000000000011</v>
+        <v>61.653999999999996</v>
       </c>
       <c r="M236" s="72">
         <v>30.864000000000001</v>
       </c>
       <c r="N236" s="72">
-        <v>86.14500000000001</v>
+        <v>86.144999999999996</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
@@ -18011,7 +18011,7 @@
         <v>0</v>
       </c>
       <c r="M237" s="72">
-        <v>86.14500000000001</v>
+        <v>86.144999999999996</v>
       </c>
       <c r="N237" s="72">
         <v>0</v>
@@ -19215,13 +19215,13 @@
         <v>56.254000000000005</v>
       </c>
       <c r="L266" s="72">
-        <v>83.374000000000009</v>
+        <v>83.373999999999981</v>
       </c>
       <c r="M266" s="72">
         <v>36.529000000000003</v>
       </c>
       <c r="N266" s="72">
-        <v>139.62800000000001</v>
+        <v>139.62799999999999</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
@@ -19262,7 +19262,7 @@
         <v>92.022999999999996</v>
       </c>
       <c r="M267" s="72">
-        <v>47.605000000000004</v>
+        <v>47.604999999999997</v>
       </c>
       <c r="N267" s="72">
         <v>125.34399999999999</v>
@@ -19300,10 +19300,10 @@
         <v>70</v>
       </c>
       <c r="K268" s="72">
-        <v>41.830999999999996</v>
+        <v>41.831000000000003</v>
       </c>
       <c r="L268" s="72">
-        <v>57.726999999999997</v>
+        <v>57.72699999999999</v>
       </c>
       <c r="M268" s="72">
         <v>67.61699999999999</v>
@@ -19344,16 +19344,16 @@
         <v>70</v>
       </c>
       <c r="K269" s="72">
-        <v>44.173999999999999</v>
+        <v>44.174000000000007</v>
       </c>
       <c r="L269" s="72">
-        <v>73.241000000000014</v>
+        <v>73.240999999999985</v>
       </c>
       <c r="M269" s="72">
         <v>26.317</v>
       </c>
       <c r="N269" s="72">
-        <v>117.41500000000001</v>
+        <v>117.41499999999999</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
@@ -19391,13 +19391,13 @@
         <v>19.664999999999999</v>
       </c>
       <c r="L270" s="72">
-        <v>67.737000000000023</v>
+        <v>67.736999999999995</v>
       </c>
       <c r="M270" s="72">
         <v>49.677999999999997</v>
       </c>
       <c r="N270" s="72">
-        <v>87.402000000000015</v>
+        <v>87.402000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
@@ -19435,7 +19435,7 @@
         <v>0</v>
       </c>
       <c r="M271" s="72">
-        <v>87.402000000000015</v>
+        <v>87.402000000000001</v>
       </c>
       <c r="N271" s="72">
         <v>0</v>
@@ -20736,16 +20736,16 @@
         <v>70</v>
       </c>
       <c r="K302" s="72">
-        <v>34.897999999999996</v>
+        <v>34.898000000000003</v>
       </c>
       <c r="L302" s="72">
-        <v>169.21200000000002</v>
+        <v>169.21200000000005</v>
       </c>
       <c r="M302" s="72">
-        <v>109.19900000000001</v>
+        <v>109.19899999999998</v>
       </c>
       <c r="N302" s="72">
-        <v>204.11</v>
+        <v>204.11000000000004</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
@@ -22852,16 +22852,16 @@
         <v>70</v>
       </c>
       <c r="K352" s="72">
-        <v>41.116999999999997</v>
+        <v>41.117000000000004</v>
       </c>
       <c r="L352" s="72">
-        <v>72.919000000000011</v>
+        <v>72.918999999999983</v>
       </c>
       <c r="M352" s="72">
         <v>29.399000000000001</v>
       </c>
       <c r="N352" s="72">
-        <v>114.036</v>
+        <v>114.03599999999999</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.25">
@@ -22984,13 +22984,13 @@
         <v>70</v>
       </c>
       <c r="K355" s="72">
-        <v>43.521999999999991</v>
+        <v>43.521999999999998</v>
       </c>
       <c r="L355" s="72">
-        <v>59.81</v>
+        <v>59.809999999999995</v>
       </c>
       <c r="M355" s="72">
-        <v>68.597000000000008</v>
+        <v>68.596999999999994</v>
       </c>
       <c r="N355" s="72">
         <v>103.33199999999999</v>
@@ -23028,16 +23028,16 @@
         <v>70</v>
       </c>
       <c r="K356" s="72">
-        <v>58.517000000000003</v>
+        <v>58.516999999999996</v>
       </c>
       <c r="L356" s="72">
-        <v>80.638999999999982</v>
+        <v>80.63900000000001</v>
       </c>
       <c r="M356" s="72">
-        <v>22.693000000000001</v>
+        <v>22.692999999999998</v>
       </c>
       <c r="N356" s="72">
-        <v>139.15599999999998</v>
+        <v>139.15600000000001</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.25">
@@ -24819,13 +24819,13 @@
         <v>60.5</v>
       </c>
       <c r="L398" s="72">
-        <v>163.78300000000002</v>
+        <v>163.78299999999999</v>
       </c>
       <c r="M398" s="72">
         <v>71.572000000000003</v>
       </c>
       <c r="N398" s="72">
-        <v>224.28300000000002</v>
+        <v>224.28299999999999</v>
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.25">
@@ -24863,13 +24863,13 @@
         <v>33.695</v>
       </c>
       <c r="L399" s="72">
-        <v>146.20599999999999</v>
+        <v>146.20600000000002</v>
       </c>
       <c r="M399" s="72">
-        <v>78.076999999999998</v>
+        <v>78.077000000000012</v>
       </c>
       <c r="N399" s="72">
-        <v>179.90099999999998</v>
+        <v>179.90100000000001</v>
       </c>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.25">
@@ -24910,7 +24910,7 @@
         <v>47.599000000000004</v>
       </c>
       <c r="M400" s="72">
-        <v>132.30199999999999</v>
+        <v>132.30200000000002</v>
       </c>
       <c r="N400" s="72">
         <v>75.798000000000002</v>
@@ -24948,7 +24948,7 @@
         <v>70</v>
       </c>
       <c r="K401" s="72">
-        <v>31.176000000000002</v>
+        <v>31.175999999999998</v>
       </c>
       <c r="L401" s="72">
         <v>59.83</v>
@@ -24992,10 +24992,10 @@
         <v>70</v>
       </c>
       <c r="K402" s="72">
-        <v>69.295000000000002</v>
+        <v>69.294999999999987</v>
       </c>
       <c r="L402" s="72">
-        <v>78.197999999999993</v>
+        <v>78.198000000000008</v>
       </c>
       <c r="M402" s="72">
         <v>12.808</v>
@@ -25039,13 +25039,13 @@
         <v>45.963999999999999</v>
       </c>
       <c r="L403" s="72">
-        <v>102.26299999999998</v>
+        <v>102.26300000000001</v>
       </c>
       <c r="M403" s="72">
-        <v>45.23</v>
+        <v>45.230000000000004</v>
       </c>
       <c r="N403" s="72">
-        <v>148.22699999999998</v>
+        <v>148.227</v>
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.25">
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="M404" s="72">
-        <v>148.22699999999998</v>
+        <v>148.227</v>
       </c>
       <c r="N404" s="72">
         <v>0</v>
@@ -25112,7 +25112,7 @@
         <v>70</v>
       </c>
       <c r="K405" s="72">
-        <v>105.042</v>
+        <v>105.04199999999999</v>
       </c>
       <c r="L405" s="72">
         <v>0</v>
@@ -25121,7 +25121,7 @@
         <v>0</v>
       </c>
       <c r="N405" s="72">
-        <v>105.042</v>
+        <v>105.04199999999999</v>
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.25">
@@ -27208,13 +27208,13 @@
         <v>70</v>
       </c>
       <c r="K454" s="72">
-        <v>22.684999999999999</v>
+        <v>22.685000000000002</v>
       </c>
       <c r="L454" s="72">
         <v>60.789999999999992</v>
       </c>
       <c r="M454" s="72">
-        <v>66.277000000000001</v>
+        <v>66.277000000000015</v>
       </c>
       <c r="N454" s="72">
         <v>83.474999999999994</v>
@@ -27255,13 +27255,13 @@
         <v>67.37700000000001</v>
       </c>
       <c r="L455" s="72">
-        <v>67.746999999999986</v>
+        <v>67.747000000000014</v>
       </c>
       <c r="M455" s="72">
         <v>15.728</v>
       </c>
       <c r="N455" s="72">
-        <v>135.124</v>
+        <v>135.12400000000002</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.25">
@@ -27299,13 +27299,13 @@
         <v>19.704999999999998</v>
       </c>
       <c r="L456" s="72">
-        <v>113.35599999999998</v>
+        <v>113.35600000000001</v>
       </c>
       <c r="M456" s="72">
-        <v>21.768000000000001</v>
+        <v>21.767999999999997</v>
       </c>
       <c r="N456" s="72">
-        <v>133.06099999999998</v>
+        <v>133.06100000000001</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.25">
@@ -27346,7 +27346,7 @@
         <v>110.965</v>
       </c>
       <c r="M457" s="72">
-        <v>22.095999999999997</v>
+        <v>22.096</v>
       </c>
       <c r="N457" s="72">
         <v>121.35900000000001</v>
@@ -27463,13 +27463,13 @@
         <v>16.013999999999999</v>
       </c>
       <c r="L460" s="72">
-        <v>80.654000000000011</v>
+        <v>80.653999999999996</v>
       </c>
       <c r="M460" s="72">
-        <v>32.927</v>
+        <v>32.927000000000007</v>
       </c>
       <c r="N460" s="72">
-        <v>96.668000000000006</v>
+        <v>96.667999999999992</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.25">
@@ -29427,13 +29427,13 @@
         <v>17.640999999999998</v>
       </c>
       <c r="L506" s="72">
-        <v>82.925999999999988</v>
+        <v>82.926000000000016</v>
       </c>
       <c r="M506" s="72">
         <v>14.183999999999997</v>
       </c>
       <c r="N506" s="72">
-        <v>100.56699999999999</v>
+        <v>100.56700000000001</v>
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.25">
@@ -29471,13 +29471,13 @@
         <v>60.477999999999994</v>
       </c>
       <c r="L507" s="72">
-        <v>40.547000000000011</v>
+        <v>40.546999999999997</v>
       </c>
       <c r="M507" s="72">
         <v>60.02</v>
       </c>
       <c r="N507" s="72">
-        <v>101.02500000000001</v>
+        <v>101.02499999999999</v>
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.25">
@@ -29512,7 +29512,7 @@
         <v>70</v>
       </c>
       <c r="K508" s="72">
-        <v>5.8219999999999992</v>
+        <v>5.8220000000000001</v>
       </c>
       <c r="L508" s="72">
         <v>23.687000000000001</v>
@@ -29562,7 +29562,7 @@
         <v>20.768999999999998</v>
       </c>
       <c r="M509" s="72">
-        <v>8.74</v>
+        <v>8.7399999999999984</v>
       </c>
       <c r="N509" s="72">
         <v>23.782</v>
@@ -29603,13 +29603,13 @@
         <v>13.603999999999999</v>
       </c>
       <c r="L510" s="72">
-        <v>13.16</v>
+        <v>13.159999999999997</v>
       </c>
       <c r="M510" s="72">
-        <v>10.622</v>
+        <v>10.622000000000002</v>
       </c>
       <c r="N510" s="72">
-        <v>26.763999999999999</v>
+        <v>26.763999999999996</v>
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.25">
@@ -29647,13 +29647,13 @@
         <v>6.1920000000000002</v>
       </c>
       <c r="L511" s="72">
-        <v>9.7620000000000005</v>
+        <v>9.7619999999999987</v>
       </c>
       <c r="M511" s="72">
         <v>17.002000000000002</v>
       </c>
       <c r="N511" s="72">
-        <v>15.954000000000001</v>
+        <v>15.953999999999999</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.25">
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="M512" s="72">
-        <v>15.954000000000001</v>
+        <v>15.953999999999999</v>
       </c>
       <c r="N512" s="72">
         <v>0</v>
@@ -29767,13 +29767,13 @@
         <v>46.95</v>
       </c>
       <c r="L514" s="72">
-        <v>31.428000000000011</v>
+        <v>31.427999999999997</v>
       </c>
       <c r="M514" s="72">
         <v>2.0579999999999998</v>
       </c>
       <c r="N514" s="72">
-        <v>78.378000000000014</v>
+        <v>78.378</v>
       </c>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.25">
@@ -31892,7 +31892,7 @@
         <v>70</v>
       </c>
       <c r="K564" s="72">
-        <v>16.658999999999999</v>
+        <v>16.659000000000002</v>
       </c>
       <c r="L564" s="72">
         <v>0</v>
@@ -31901,7 +31901,7 @@
         <v>0</v>
       </c>
       <c r="N564" s="72">
-        <v>16.658999999999999</v>
+        <v>16.659000000000002</v>
       </c>
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.25">
@@ -32027,13 +32027,13 @@
         <v>32.658000000000001</v>
       </c>
       <c r="L567" s="72">
-        <v>29.688999999999993</v>
+        <v>29.689</v>
       </c>
       <c r="M567" s="72">
         <v>43.756999999999998</v>
       </c>
       <c r="N567" s="72">
-        <v>62.346999999999994</v>
+        <v>62.347000000000001</v>
       </c>
     </row>
     <row r="568" spans="1:14" x14ac:dyDescent="0.25">
@@ -33498,7 +33498,7 @@
         <v>48.376000000000005</v>
       </c>
       <c r="M602" s="72">
-        <v>52.583000000000006</v>
+        <v>52.582999999999998</v>
       </c>
       <c r="N602" s="72">
         <v>95.716000000000008</v>
@@ -33539,13 +33539,13 @@
         <v>45.087000000000003</v>
       </c>
       <c r="L603" s="72">
-        <v>57.325999999999979</v>
+        <v>57.325999999999993</v>
       </c>
       <c r="M603" s="72">
         <v>38.39</v>
       </c>
       <c r="N603" s="72">
-        <v>102.41299999999998</v>
+        <v>102.413</v>
       </c>
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.25">
@@ -35004,7 +35004,7 @@
         <v>70</v>
       </c>
       <c r="K638" s="72">
-        <v>28.362000000000002</v>
+        <v>28.361999999999998</v>
       </c>
       <c r="L638" s="72">
         <v>1.588000000000001</v>
@@ -35013,7 +35013,7 @@
         <v>3.056</v>
       </c>
       <c r="N638" s="72">
-        <v>29.950000000000003</v>
+        <v>29.95</v>
       </c>
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.25">
@@ -35051,13 +35051,13 @@
         <v>9.9909999999999997</v>
       </c>
       <c r="L639" s="72">
-        <v>12.924000000000003</v>
+        <v>12.923999999999999</v>
       </c>
       <c r="M639" s="72">
         <v>17.026</v>
       </c>
       <c r="N639" s="72">
-        <v>22.915000000000003</v>
+        <v>22.914999999999999</v>
       </c>
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.25">
@@ -36428,7 +36428,7 @@
         <v>70</v>
       </c>
       <c r="K672" s="72">
-        <v>36.98899999999999</v>
+        <v>36.988999999999997</v>
       </c>
       <c r="L672" s="72">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="N672" s="72">
-        <v>36.98899999999999</v>
+        <v>36.988999999999997</v>
       </c>
     </row>
     <row r="673" spans="1:14" x14ac:dyDescent="0.25">
@@ -36478,7 +36478,7 @@
         <v>22.199999999999996</v>
       </c>
       <c r="M673" s="72">
-        <v>14.789000000000001</v>
+        <v>14.789</v>
       </c>
       <c r="N673" s="72">
         <v>36.406999999999996</v>
@@ -36563,13 +36563,13 @@
         <v>25.469000000000001</v>
       </c>
       <c r="L675" s="72">
-        <v>7.3659999999999926</v>
+        <v>7.3659999999999997</v>
       </c>
       <c r="M675" s="72">
-        <v>8.7900000000000009</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="N675" s="72">
-        <v>32.834999999999994</v>
+        <v>32.835000000000001</v>
       </c>
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.25">
@@ -36607,13 +36607,13 @@
         <v>9.0120000000000005</v>
       </c>
       <c r="L676" s="72">
-        <v>21.257999999999999</v>
+        <v>21.258000000000003</v>
       </c>
       <c r="M676" s="72">
-        <v>11.577</v>
+        <v>11.577000000000002</v>
       </c>
       <c r="N676" s="72">
-        <v>30.27</v>
+        <v>30.270000000000003</v>
       </c>
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.25">
@@ -36651,7 +36651,7 @@
         <v>0</v>
       </c>
       <c r="M677" s="72">
-        <v>30.27</v>
+        <v>30.270000000000003</v>
       </c>
       <c r="N677" s="72">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>70</v>
       </c>
       <c r="K708" s="72">
-        <v>46.725999999999992</v>
+        <v>46.725999999999999</v>
       </c>
       <c r="L708" s="72">
         <v>0</v>
@@ -37949,7 +37949,7 @@
         <v>0</v>
       </c>
       <c r="N708" s="72">
-        <v>46.725999999999992</v>
+        <v>46.725999999999999</v>
       </c>
     </row>
     <row r="709" spans="1:14" x14ac:dyDescent="0.25">
@@ -37987,13 +37987,13 @@
         <v>34.085999999999999</v>
       </c>
       <c r="L709" s="72">
-        <v>40.22699999999999</v>
+        <v>40.227000000000004</v>
       </c>
       <c r="M709" s="72">
         <v>6.4990000000000006</v>
       </c>
       <c r="N709" s="72">
-        <v>74.312999999999988</v>
+        <v>74.313000000000002</v>
       </c>
     </row>
     <row r="710" spans="1:14" x14ac:dyDescent="0.25">
@@ -38034,7 +38034,7 @@
         <v>51.488000000000007</v>
       </c>
       <c r="M710" s="72">
-        <v>22.824999999999999</v>
+        <v>22.824999999999996</v>
       </c>
       <c r="N710" s="72">
         <v>72.585000000000008</v>
@@ -38075,13 +38075,13 @@
         <v>16.548000000000002</v>
       </c>
       <c r="L711" s="72">
-        <v>22.274999999999991</v>
+        <v>22.274999999999999</v>
       </c>
       <c r="M711" s="72">
         <v>50.31</v>
       </c>
       <c r="N711" s="72">
-        <v>38.822999999999993</v>
+        <v>38.823</v>
       </c>
     </row>
     <row r="712" spans="1:14" x14ac:dyDescent="0.25">
@@ -38122,7 +38122,7 @@
         <v>25.620999999999995</v>
       </c>
       <c r="M712" s="72">
-        <v>13.202</v>
+        <v>13.202000000000002</v>
       </c>
       <c r="N712" s="72">
         <v>36.712999999999994</v>
@@ -39379,13 +39379,13 @@
         <v>8.8810000000000002</v>
       </c>
       <c r="L742" s="72">
-        <v>24.665999999999997</v>
+        <v>24.666000000000004</v>
       </c>
       <c r="M742" s="72">
         <v>11.629</v>
       </c>
       <c r="N742" s="72">
-        <v>33.546999999999997</v>
+        <v>33.547000000000004</v>
       </c>
     </row>
     <row r="743" spans="1:14" x14ac:dyDescent="0.25">
@@ -39423,7 +39423,7 @@
         <v>0</v>
       </c>
       <c r="M743" s="72">
-        <v>33.546999999999997</v>
+        <v>33.547000000000004</v>
       </c>
       <c r="N743" s="72">
         <v>0</v>
@@ -39499,13 +39499,13 @@
         <v>28.484000000000002</v>
       </c>
       <c r="L745" s="72">
-        <v>56.571999999999981</v>
+        <v>56.57200000000001</v>
       </c>
       <c r="M745" s="72">
         <v>35.980000000000004</v>
       </c>
       <c r="N745" s="72">
-        <v>85.055999999999983</v>
+        <v>85.056000000000012</v>
       </c>
     </row>
     <row r="746" spans="1:14" x14ac:dyDescent="0.25">
@@ -39540,10 +39540,10 @@
         <v>70</v>
       </c>
       <c r="K746" s="72">
-        <v>19.199000000000002</v>
+        <v>19.198999999999998</v>
       </c>
       <c r="L746" s="72">
-        <v>26.483000000000001</v>
+        <v>26.483000000000004</v>
       </c>
       <c r="M746" s="72">
         <v>58.573</v>
@@ -41099,13 +41099,13 @@
         <v>20.978999999999999</v>
       </c>
       <c r="L783" s="72">
-        <v>41.264000000000003</v>
+        <v>41.263999999999996</v>
       </c>
       <c r="M783" s="72">
-        <v>71.442999999999984</v>
+        <v>71.443000000000012</v>
       </c>
       <c r="N783" s="72">
-        <v>62.243000000000002</v>
+        <v>62.242999999999995</v>
       </c>
     </row>
     <row r="784" spans="1:14" x14ac:dyDescent="0.25">
@@ -42523,13 +42523,13 @@
         <v>50.69</v>
       </c>
       <c r="L817" s="72">
-        <v>53.134000000000015</v>
+        <v>53.134</v>
       </c>
       <c r="M817" s="72">
         <v>11.722999999999999</v>
       </c>
       <c r="N817" s="72">
-        <v>103.82400000000001</v>
+        <v>103.824</v>
       </c>
     </row>
     <row r="818" spans="1:14" x14ac:dyDescent="0.25">
@@ -42564,16 +42564,16 @@
         <v>70</v>
       </c>
       <c r="K818" s="72">
-        <v>52.573000000000008</v>
+        <v>52.572999999999993</v>
       </c>
       <c r="L818" s="72">
         <v>73.810999999999993</v>
       </c>
       <c r="M818" s="72">
-        <v>30.012999999999998</v>
+        <v>30.013000000000002</v>
       </c>
       <c r="N818" s="72">
-        <v>126.384</v>
+        <v>126.38399999999999</v>
       </c>
     </row>
     <row r="819" spans="1:14" x14ac:dyDescent="0.25">
@@ -42608,13 +42608,13 @@
         <v>70</v>
       </c>
       <c r="K819" s="72">
-        <v>68.084999999999994</v>
+        <v>68.085000000000008</v>
       </c>
       <c r="L819" s="72">
-        <v>85.331999999999979</v>
+        <v>85.331999999999965</v>
       </c>
       <c r="M819" s="72">
-        <v>41.052000000000007</v>
+        <v>41.052</v>
       </c>
       <c r="N819" s="72">
         <v>153.41699999999997</v>
@@ -44032,16 +44032,16 @@
         <v>70</v>
       </c>
       <c r="K853" s="72">
-        <v>18.271999999999998</v>
+        <v>18.272000000000002</v>
       </c>
       <c r="L853" s="72">
-        <v>52.713999999999992</v>
+        <v>52.713999999999999</v>
       </c>
       <c r="M853" s="72">
         <v>27.813000000000002</v>
       </c>
       <c r="N853" s="72">
-        <v>70.98599999999999</v>
+        <v>70.986000000000004</v>
       </c>
     </row>
     <row r="854" spans="1:14" x14ac:dyDescent="0.25">
@@ -44079,13 +44079,13 @@
         <v>5.234</v>
       </c>
       <c r="L854" s="72">
-        <v>9.9019999999999992</v>
+        <v>9.902000000000001</v>
       </c>
       <c r="M854" s="72">
         <v>61.084000000000003</v>
       </c>
       <c r="N854" s="72">
-        <v>15.135999999999999</v>
+        <v>15.136000000000001</v>
       </c>
     </row>
     <row r="855" spans="1:14" x14ac:dyDescent="0.25">
@@ -44120,16 +44120,16 @@
         <v>70</v>
       </c>
       <c r="K855" s="72">
-        <v>19.02</v>
+        <v>19.020000000000003</v>
       </c>
       <c r="L855" s="72">
         <v>2.8810000000000002</v>
       </c>
       <c r="M855" s="72">
-        <v>12.254999999999999</v>
+        <v>12.255000000000001</v>
       </c>
       <c r="N855" s="72">
-        <v>21.901</v>
+        <v>21.901000000000003</v>
       </c>
     </row>
     <row r="856" spans="1:14" x14ac:dyDescent="0.25">
@@ -44167,13 +44167,13 @@
         <v>4.2170000000000005</v>
       </c>
       <c r="L856" s="72">
-        <v>7.0640000000000001</v>
+        <v>7.0639999999999983</v>
       </c>
       <c r="M856" s="72">
         <v>14.837</v>
       </c>
       <c r="N856" s="72">
-        <v>11.281000000000001</v>
+        <v>11.280999999999999</v>
       </c>
     </row>
     <row r="857" spans="1:14" x14ac:dyDescent="0.25">
@@ -45339,13 +45339,13 @@
         <v>28.584000000000003</v>
       </c>
       <c r="L884" s="72">
-        <v>55.317999999999998</v>
+        <v>55.317999999999984</v>
       </c>
       <c r="M884" s="72">
         <v>20.327000000000005</v>
       </c>
       <c r="N884" s="72">
-        <v>83.902000000000001</v>
+        <v>83.901999999999987</v>
       </c>
     </row>
     <row r="885" spans="1:14" x14ac:dyDescent="0.25">
@@ -45383,13 +45383,13 @@
         <v>27.363</v>
       </c>
       <c r="L885" s="72">
-        <v>31.146999999999998</v>
+        <v>31.146999999999991</v>
       </c>
       <c r="M885" s="72">
-        <v>52.755000000000003</v>
+        <v>52.754999999999995</v>
       </c>
       <c r="N885" s="72">
-        <v>58.51</v>
+        <v>58.509999999999991</v>
       </c>
     </row>
     <row r="886" spans="1:14" x14ac:dyDescent="0.25">
@@ -46848,10 +46848,10 @@
         <v>70</v>
       </c>
       <c r="K920" s="72">
-        <v>20.965000000000003</v>
+        <v>20.965</v>
       </c>
       <c r="L920" s="72">
-        <v>24.323</v>
+        <v>24.323000000000004</v>
       </c>
       <c r="M920" s="72">
         <v>61.035000000000004</v>
@@ -47012,7 +47012,7 @@
         <v>70</v>
       </c>
       <c r="K924" s="72">
-        <v>65.254000000000005</v>
+        <v>65.253999999999991</v>
       </c>
       <c r="L924" s="72">
         <v>0</v>
@@ -47021,7 +47021,7 @@
         <v>0</v>
       </c>
       <c r="N924" s="72">
-        <v>65.254000000000005</v>
+        <v>65.253999999999991</v>
       </c>
     </row>
     <row r="925" spans="1:14" x14ac:dyDescent="0.25">
@@ -48524,7 +48524,7 @@
         <v>70</v>
       </c>
       <c r="K960" s="72">
-        <v>49.323</v>
+        <v>49.323000000000008</v>
       </c>
       <c r="L960" s="72">
         <v>0</v>
@@ -48533,7 +48533,7 @@
         <v>0</v>
       </c>
       <c r="N960" s="72">
-        <v>49.323</v>
+        <v>49.323000000000008</v>
       </c>
     </row>
     <row r="961" spans="1:14" x14ac:dyDescent="0.25">
@@ -48568,16 +48568,16 @@
         <v>70</v>
       </c>
       <c r="K961" s="72">
-        <v>12.069000000000001</v>
+        <v>12.068999999999999</v>
       </c>
       <c r="L961" s="72">
-        <v>36.497999999999998</v>
+        <v>36.498000000000005</v>
       </c>
       <c r="M961" s="72">
-        <v>12.825000000000001</v>
+        <v>12.824999999999999</v>
       </c>
       <c r="N961" s="72">
-        <v>48.567</v>
+        <v>48.567000000000007</v>
       </c>
     </row>
     <row r="962" spans="1:14" x14ac:dyDescent="0.25">
@@ -50127,13 +50127,13 @@
         <v>18.530999999999999</v>
       </c>
       <c r="L998" s="72">
-        <v>38.231999999999999</v>
+        <v>38.232000000000006</v>
       </c>
       <c r="M998" s="72">
-        <v>11.324999999999999</v>
+        <v>11.325000000000001</v>
       </c>
       <c r="N998" s="72">
-        <v>56.762999999999998</v>
+        <v>56.763000000000005</v>
       </c>
     </row>
     <row r="999" spans="1:14" x14ac:dyDescent="0.25">
@@ -50168,7 +50168,7 @@
         <v>70</v>
       </c>
       <c r="K999" s="72">
-        <v>11.859</v>
+        <v>11.859000000000002</v>
       </c>
       <c r="L999" s="72">
         <v>2.7859999999999996</v>
@@ -50177,7 +50177,7 @@
         <v>53.976999999999997</v>
       </c>
       <c r="N999" s="72">
-        <v>14.645</v>
+        <v>14.645000000000001</v>
       </c>
     </row>
     <row r="1000" spans="1:14" x14ac:dyDescent="0.25">
@@ -51598,7 +51598,7 @@
         <v>4.0450000000000017</v>
       </c>
       <c r="M1033" s="72">
-        <v>7.0460000000000012</v>
+        <v>7.0459999999999994</v>
       </c>
       <c r="N1033" s="72">
         <v>17.475000000000001</v>
@@ -51724,10 +51724,10 @@
         <v>70</v>
       </c>
       <c r="K1036" s="72">
-        <v>32.550000000000004</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="L1036" s="72">
-        <v>19.235999999999997</v>
+        <v>19.236000000000004</v>
       </c>
       <c r="M1036" s="72">
         <v>64.570999999999998</v>
@@ -53110,7 +53110,7 @@
         <v>22.921000000000006</v>
       </c>
       <c r="M1069" s="72">
-        <v>57.132999999999996</v>
+        <v>57.133000000000003</v>
       </c>
       <c r="N1069" s="72">
         <v>37.611000000000004</v>
@@ -53198,7 +53198,7 @@
         <v>20.806999999999999</v>
       </c>
       <c r="M1071" s="72">
-        <v>14.248999999999999</v>
+        <v>14.249000000000001</v>
       </c>
       <c r="N1071" s="72">
         <v>24.584</v>
@@ -53242,7 +53242,7 @@
         <v>15.590999999999999</v>
       </c>
       <c r="M1072" s="72">
-        <v>8.9930000000000003</v>
+        <v>8.9930000000000021</v>
       </c>
       <c r="N1072" s="72">
         <v>17.47</v>
@@ -54572,7 +54572,7 @@
         <v>70</v>
       </c>
       <c r="K1104" s="72">
-        <v>192.76000000000002</v>
+        <v>192.76</v>
       </c>
       <c r="L1104" s="72">
         <v>0</v>
@@ -54581,7 +54581,7 @@
         <v>0</v>
       </c>
       <c r="N1104" s="72">
-        <v>192.76000000000002</v>
+        <v>192.76</v>
       </c>
     </row>
     <row r="1105" spans="1:14" x14ac:dyDescent="0.25">
@@ -54616,16 +54616,16 @@
         <v>70</v>
       </c>
       <c r="K1105" s="72">
-        <v>18.548999999999999</v>
+        <v>18.549000000000003</v>
       </c>
       <c r="L1105" s="72">
-        <v>139.63100000000003</v>
+        <v>139.631</v>
       </c>
       <c r="M1105" s="72">
         <v>53.129000000000005</v>
       </c>
       <c r="N1105" s="72">
-        <v>158.18000000000004</v>
+        <v>158.18</v>
       </c>
     </row>
     <row r="1106" spans="1:14" x14ac:dyDescent="0.25">
@@ -56131,13 +56131,13 @@
         <v>15.459999999999999</v>
       </c>
       <c r="L1141" s="72">
-        <v>10.076000000000002</v>
+        <v>10.075999999999999</v>
       </c>
       <c r="M1141" s="72">
         <v>31.638999999999999</v>
       </c>
       <c r="N1141" s="72">
-        <v>25.536000000000001</v>
+        <v>25.535999999999998</v>
       </c>
     </row>
     <row r="1142" spans="1:14" x14ac:dyDescent="0.25">
@@ -56222,10 +56222,10 @@
         <v>16.353999999999999</v>
       </c>
       <c r="M1143" s="72">
-        <v>7.8939999999999992</v>
+        <v>7.8940000000000001</v>
       </c>
       <c r="N1143" s="72">
-        <v>23.067999999999998</v>
+        <v>23.068000000000001</v>
       </c>
     </row>
     <row r="1144" spans="1:14" x14ac:dyDescent="0.25">
@@ -56263,13 +56263,13 @@
         <v>6.1920000000000002</v>
       </c>
       <c r="L1144" s="72">
-        <v>18.627000000000002</v>
+        <v>18.626999999999995</v>
       </c>
       <c r="M1144" s="72">
         <v>4.4410000000000007</v>
       </c>
       <c r="N1144" s="72">
-        <v>24.819000000000003</v>
+        <v>24.818999999999996</v>
       </c>
     </row>
     <row r="1145" spans="1:14" x14ac:dyDescent="0.25">
@@ -56307,7 +56307,7 @@
         <v>0</v>
       </c>
       <c r="M1145" s="72">
-        <v>24.819000000000003</v>
+        <v>24.818999999999996</v>
       </c>
       <c r="N1145" s="72">
         <v>0</v>
@@ -57596,7 +57596,7 @@
         <v>70</v>
       </c>
       <c r="K1176" s="72">
-        <v>121.76600000000001</v>
+        <v>121.76599999999999</v>
       </c>
       <c r="L1176" s="72">
         <v>0</v>
@@ -57605,7 +57605,7 @@
         <v>0</v>
       </c>
       <c r="N1176" s="72">
-        <v>121.76600000000001</v>
+        <v>121.76599999999999</v>
       </c>
     </row>
     <row r="1177" spans="1:14" x14ac:dyDescent="0.25">
@@ -57643,13 +57643,13 @@
         <v>25.466000000000001</v>
       </c>
       <c r="L1177" s="72">
-        <v>110.98699999999999</v>
+        <v>110.98700000000002</v>
       </c>
       <c r="M1177" s="72">
         <v>10.779</v>
       </c>
       <c r="N1177" s="72">
-        <v>136.453</v>
+        <v>136.45300000000003</v>
       </c>
     </row>
     <row r="1178" spans="1:14" x14ac:dyDescent="0.25">
@@ -57734,7 +57734,7 @@
         <v>77.009999999999991</v>
       </c>
       <c r="M1179" s="72">
-        <v>18.613999999999997</v>
+        <v>18.614000000000001</v>
       </c>
       <c r="N1179" s="72">
         <v>111.548</v>
@@ -57775,13 +57775,13 @@
         <v>12.252000000000001</v>
       </c>
       <c r="L1180" s="72">
-        <v>44.006999999999998</v>
+        <v>44.007000000000005</v>
       </c>
       <c r="M1180" s="72">
         <v>67.540999999999997</v>
       </c>
       <c r="N1180" s="72">
-        <v>56.259</v>
+        <v>56.259000000000007</v>
       </c>
     </row>
     <row r="1181" spans="1:14" x14ac:dyDescent="0.25">
@@ -57819,7 +57819,7 @@
         <v>0</v>
       </c>
       <c r="M1181" s="72">
-        <v>56.259</v>
+        <v>56.259000000000007</v>
       </c>
       <c r="N1181" s="72">
         <v>0</v>
@@ -61607,13 +61607,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>258.13925</v>
+        <v>258.13925000000006</v>
       </c>
       <c r="H6" s="72">
         <v>280</v>
       </c>
       <c r="I6" s="76">
-        <v>0.92192589285714288</v>
+        <v>0.9219258928571431</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -61636,13 +61636,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>46.930249999999994</v>
+        <v>46.930250000000015</v>
       </c>
       <c r="H7" s="72">
         <v>280</v>
       </c>
       <c r="I7" s="76">
-        <v>0.1676080357142857</v>
+        <v>0.16760803571428576</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -61723,13 +61723,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>247.167</v>
+        <v>247.16699999999997</v>
       </c>
       <c r="H10" s="72">
         <v>350</v>
       </c>
       <c r="I10" s="76">
-        <v>0.70619142857142858</v>
+        <v>0.70619142857142847</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -61752,13 +61752,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>61.119749999999982</v>
+        <v>61.11975000000001</v>
       </c>
       <c r="H11" s="72">
         <v>350</v>
       </c>
       <c r="I11" s="76">
-        <v>0.17462785714285708</v>
+        <v>0.17462785714285717</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -61781,13 +61781,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="72">
-        <v>64.180749999999989</v>
+        <v>64.180750000000018</v>
       </c>
       <c r="H12" s="72">
         <v>210</v>
       </c>
       <c r="I12" s="76">
-        <v>0.305622619047619</v>
+        <v>0.30562261904761912</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -61810,13 +61810,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="72">
-        <v>29.848750000000003</v>
+        <v>29.84875000000001</v>
       </c>
       <c r="H13" s="72">
         <v>210</v>
       </c>
       <c r="I13" s="76">
-        <v>0.14213690476190477</v>
+        <v>0.1421369047619048</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -61839,13 +61839,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>64.597499999999997</v>
+        <v>64.597500000000025</v>
       </c>
       <c r="H14" s="72">
         <v>140</v>
       </c>
       <c r="I14" s="76">
-        <v>0.46141071428571429</v>
+        <v>0.46141071428571445</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -61868,13 +61868,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>81.609250000000003</v>
+        <v>81.609250000000017</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.58292321428571425</v>
+        <v>0.58292321428571436</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -61897,13 +61897,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>335.1942499999999</v>
+        <v>335.19424999999978</v>
       </c>
       <c r="H16" s="72">
         <v>420</v>
       </c>
       <c r="I16" s="76">
-        <v>0.79808154761904737</v>
+        <v>0.79808154761904715</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -61926,13 +61926,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>112.2945</v>
+        <v>112.29450000000006</v>
       </c>
       <c r="H17" s="72">
         <v>420</v>
       </c>
       <c r="I17" s="76">
-        <v>0.26736785714285716</v>
+        <v>0.26736785714285727</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -61955,13 +61955,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.900000000000006</v>
+        <v>40.9</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.58428571428571441</v>
+        <v>0.5842857142857143</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -61984,13 +61984,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.378</v>
+        <v>50.378000000000007</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.71968571428571426</v>
+        <v>0.71968571428571437</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -62042,13 +62042,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>16.392249999999997</v>
+        <v>16.392250000000001</v>
       </c>
       <c r="H21" s="72">
         <v>70</v>
       </c>
       <c r="I21" s="76">
-        <v>0.23417499999999997</v>
+        <v>0.23417500000000002</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -62129,13 +62129,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135750000000002</v>
+        <v>61.135749999999994</v>
       </c>
       <c r="H24" s="72">
         <v>70</v>
       </c>
       <c r="I24" s="76">
-        <v>0.87336785714285714</v>
+        <v>0.87336785714285703</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -62158,13 +62158,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>43.853499999999997</v>
+        <v>43.853500000000004</v>
       </c>
       <c r="H25" s="72">
         <v>70</v>
       </c>
       <c r="I25" s="76">
-        <v>0.62647857142857133</v>
+        <v>0.62647857142857144</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -62274,13 +62274,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>93.042500000000004</v>
+        <v>93.04249999999999</v>
       </c>
       <c r="H29" s="72">
         <v>210</v>
       </c>
       <c r="I29" s="76">
-        <v>0.44305952380952385</v>
+        <v>0.44305952380952374</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -62303,13 +62303,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>51.585999999999984</v>
+        <v>51.585999999999991</v>
       </c>
       <c r="H30" s="72">
         <v>70</v>
       </c>
       <c r="I30" s="76">
-        <v>0.7369428571428569</v>
+        <v>0.73694285714285701</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -62332,13 +62332,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>29.641250000000003</v>
+        <v>29.641249999999999</v>
       </c>
       <c r="H31" s="72">
         <v>70</v>
       </c>
       <c r="I31" s="76">
-        <v>0.42344642857142861</v>
+        <v>0.42344642857142856</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -62390,13 +62390,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>134.91624999999999</v>
+        <v>134.91625000000002</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.64245833333333324</v>
+        <v>0.64245833333333346</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -62419,13 +62419,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>627.52124999999978</v>
+        <v>627.52124999999864</v>
       </c>
       <c r="H34" s="72">
         <v>840</v>
       </c>
       <c r="I34" s="76">
-        <v>0.74704910714285688</v>
+        <v>0.74704910714285555</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -62448,13 +62448,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>254.5927499999998</v>
+        <v>254.59274999999991</v>
       </c>
       <c r="H35" s="72">
         <v>840</v>
       </c>
       <c r="I35" s="76">
-        <v>0.3030866071428569</v>
+        <v>0.30308660714285701</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -62477,13 +62477,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>43.743500000000012</v>
+        <v>43.74349999999999</v>
       </c>
       <c r="H36" s="72">
         <v>70</v>
       </c>
       <c r="I36" s="76">
-        <v>0.62490714285714299</v>
+        <v>0.62490714285714277</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -62535,13 +62535,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>50.000250000000001</v>
+        <v>50.000250000000008</v>
       </c>
       <c r="H38" s="72">
         <v>70</v>
       </c>
       <c r="I38" s="76">
-        <v>0.71428928571428574</v>
+        <v>0.71428928571428585</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -62564,13 +62564,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>24.239249999999995</v>
+        <v>24.239249999999998</v>
       </c>
       <c r="H39" s="72">
         <v>70</v>
       </c>
       <c r="I39" s="76">
-        <v>0.34627499999999994</v>
+        <v>0.346275</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -62651,13 +62651,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>64.462500000000034</v>
+        <v>64.462500000000006</v>
       </c>
       <c r="H42" s="72">
         <v>70</v>
       </c>
       <c r="I42" s="76">
-        <v>0.92089285714285762</v>
+        <v>0.92089285714285718</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -62767,13 +62767,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>87.458250000000035</v>
+        <v>87.458249999999992</v>
       </c>
       <c r="H46" s="72">
         <v>140</v>
       </c>
       <c r="I46" s="76">
-        <v>0.62470178571428592</v>
+        <v>0.6247017857142857</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -62796,13 +62796,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>69.430500000000023</v>
+        <v>69.430500000000009</v>
       </c>
       <c r="H47" s="72">
         <v>140</v>
       </c>
       <c r="I47" s="76">
-        <v>0.49593214285714304</v>
+        <v>0.49593214285714293</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -62825,13 +62825,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>63.287750000000003</v>
+        <v>63.28775000000001</v>
       </c>
       <c r="H48" s="72">
         <v>70</v>
       </c>
       <c r="I48" s="76">
-        <v>0.90411071428571432</v>
+        <v>0.90411071428571443</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -62912,13 +62912,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>164.83499999999992</v>
+        <v>164.83500000000004</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>0.78492857142857109</v>
+        <v>0.78492857142857164</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -62970,13 +62970,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>451.33724999999998</v>
+        <v>451.33724999999947</v>
       </c>
       <c r="H53" s="72">
         <v>630</v>
       </c>
       <c r="I53" s="76">
-        <v>0.71640833333333331</v>
+        <v>0.71640833333333254</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -62999,13 +62999,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>43.967250000000007</v>
+        <v>43.96725</v>
       </c>
       <c r="H54" s="72">
         <v>70</v>
       </c>
       <c r="I54" s="76">
-        <v>0.62810357142857154</v>
+        <v>0.62810357142857143</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -63028,13 +63028,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>63.393750000000018</v>
+        <v>63.393750000000004</v>
       </c>
       <c r="H55" s="72">
         <v>70</v>
       </c>
       <c r="I55" s="76">
-        <v>0.90562500000000024</v>
+        <v>0.90562500000000001</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -63057,13 +63057,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="72">
-        <v>47.312999999999995</v>
+        <v>47.313000000000002</v>
       </c>
       <c r="H56" s="72">
         <v>70</v>
       </c>
       <c r="I56" s="76">
-        <v>0.67589999999999995</v>
+        <v>0.67590000000000006</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -63086,13 +63086,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>27.928749999999994</v>
+        <v>27.928750000000001</v>
       </c>
       <c r="H57" s="72">
         <v>70</v>
       </c>
       <c r="I57" s="76">
-        <v>0.39898214285714279</v>
+        <v>0.3989821428571429</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -63173,13 +63173,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>62.991</v>
+        <v>62.991000000000014</v>
       </c>
       <c r="H60" s="72">
         <v>70</v>
       </c>
       <c r="I60" s="76">
-        <v>0.89987142857142854</v>
+        <v>0.89987142857142877</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -63202,13 +63202,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>42.273750000000014</v>
+        <v>42.27375</v>
       </c>
       <c r="H61" s="72">
         <v>70</v>
       </c>
       <c r="I61" s="76">
-        <v>0.60391071428571452</v>
+        <v>0.6039107142857143</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -63289,13 +63289,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>212.85324999999997</v>
+        <v>212.85324999999992</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>1.0135869047619046</v>
+        <v>1.0135869047619044</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -63318,13 +63318,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>135.07975000000005</v>
+        <v>135.07974999999999</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.64323690476190498</v>
+        <v>0.64323690476190476</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -63405,13 +63405,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>114.06000000000006</v>
+        <v>114.05999999999997</v>
       </c>
       <c r="H68" s="72">
         <v>210</v>
       </c>
       <c r="I68" s="76">
-        <v>0.54314285714285737</v>
+        <v>0.54314285714285704</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -63463,13 +63463,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>216.25749999999979</v>
+        <v>216.25749999999994</v>
       </c>
       <c r="H70" s="72">
         <v>350</v>
       </c>
       <c r="I70" s="76">
-        <v>0.61787857142857083</v>
+        <v>0.61787857142857128</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -63492,13 +63492,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>203.20624999999993</v>
+        <v>203.20624999999981</v>
       </c>
       <c r="H71" s="72">
         <v>350</v>
       </c>
       <c r="I71" s="76">
-        <v>0.58058928571428547</v>
+        <v>0.58058928571428514</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -63550,13 +63550,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.677999999999997</v>
+        <v>56.678000000000011</v>
       </c>
       <c r="H73" s="72">
         <v>70</v>
       </c>
       <c r="I73" s="76">
-        <v>0.80968571428571423</v>
+        <v>0.80968571428571445</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -63579,13 +63579,13 @@
         <v>0</v>
       </c>
       <c r="G74" s="72">
-        <v>49.520999999999987</v>
+        <v>49.521000000000001</v>
       </c>
       <c r="H74" s="72">
         <v>70</v>
       </c>
       <c r="I74" s="76">
-        <v>0.70744285714285693</v>
+        <v>0.70744285714285715</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -63724,13 +63724,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>35.89</v>
+        <v>35.889999999999993</v>
       </c>
       <c r="H79" s="72">
         <v>70</v>
       </c>
       <c r="I79" s="76">
-        <v>0.51271428571428568</v>
+        <v>0.51271428571428557</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -63753,13 +63753,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>110.01475000000002</v>
+        <v>110.01475000000001</v>
       </c>
       <c r="H80" s="72">
         <v>140</v>
       </c>
       <c r="I80" s="76">
-        <v>0.78581964285714301</v>
+        <v>0.7858196428571429</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -63811,13 +63811,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>149.80450000000002</v>
+        <v>149.80449999999993</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.71335476190476199</v>
+        <v>0.71335476190476155</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -63840,13 +63840,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>74.296249999999972</v>
+        <v>74.296250000000001</v>
       </c>
       <c r="H83" s="72">
         <v>210</v>
       </c>
       <c r="I83" s="76">
-        <v>0.35379166666666656</v>
+        <v>0.35379166666666667</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -63869,13 +63869,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25125</v>
+        <v>168.25124999999997</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.80119642857142859</v>
+        <v>0.80119642857142848</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -63898,13 +63898,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.551999999999992</v>
+        <v>40.552</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.19310476190476186</v>
+        <v>0.19310476190476189</v>
       </c>
     </row>
   </sheetData>

--- a/Grid_5x5/Solutions/Solution_NDP_S065/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S065/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2666,7 +2666,7 @@
         <v>166</v>
       </c>
       <c r="C39" s="38">
-        <v>18.862651417265464</v>
+        <v>18.862651417265457</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>129</v>
@@ -2686,7 +2686,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="39">
-        <v>19.417699197403287</v>
+        <v>19.41769919740328</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>129</v>
@@ -2706,7 +2706,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.23467557228393104</v>
+        <v>0.23467557228393099</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2727,7 +2727,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>1.0135869047619044</v>
+        <v>1.0135869047619048</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2747,7 +2747,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>1.8113142857142859</v>
+        <v>1.8113142857142861</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -8480,16 +8480,16 @@
         <v>70</v>
       </c>
       <c r="K12" s="72">
-        <v>88.287000000000006</v>
+        <v>88.286999999999992</v>
       </c>
       <c r="L12" s="72">
-        <v>144.857</v>
+        <v>144.85699999999997</v>
       </c>
       <c r="M12" s="72">
         <v>15.789</v>
       </c>
       <c r="N12" s="72">
-        <v>233.14400000000001</v>
+        <v>233.14399999999998</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -8647,13 +8647,13 @@
         <v>22.339000000000002</v>
       </c>
       <c r="L16" s="72">
-        <v>106.53699999999998</v>
+        <v>106.53700000000001</v>
       </c>
       <c r="M16" s="72">
         <v>9.5489999999999995</v>
       </c>
       <c r="N16" s="72">
-        <v>128.87599999999998</v>
+        <v>128.876</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -8688,10 +8688,10 @@
         <v>70</v>
       </c>
       <c r="K17" s="72">
-        <v>38.117000000000004</v>
+        <v>38.116999999999997</v>
       </c>
       <c r="L17" s="72">
-        <v>120.527</v>
+        <v>120.52700000000002</v>
       </c>
       <c r="M17" s="72">
         <v>8.3490000000000002</v>
@@ -8735,13 +8735,13 @@
         <v>34.129000000000005</v>
       </c>
       <c r="L18" s="72">
-        <v>124.81700000000002</v>
+        <v>124.81699999999999</v>
       </c>
       <c r="M18" s="72">
-        <v>33.827000000000005</v>
+        <v>33.826999999999998</v>
       </c>
       <c r="N18" s="72">
-        <v>158.94600000000003</v>
+        <v>158.946</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -8776,16 +8776,16 @@
         <v>70</v>
       </c>
       <c r="K19" s="72">
-        <v>29.978000000000002</v>
+        <v>29.977999999999998</v>
       </c>
       <c r="L19" s="72">
-        <v>70.908999999999992</v>
+        <v>70.909000000000006</v>
       </c>
       <c r="M19" s="72">
         <v>88.037000000000006</v>
       </c>
       <c r="N19" s="72">
-        <v>100.88699999999999</v>
+        <v>100.887</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -10740,7 +10740,7 @@
         <v>70</v>
       </c>
       <c r="K65" s="72">
-        <v>12.806999999999999</v>
+        <v>12.807</v>
       </c>
       <c r="L65" s="72">
         <v>56.584000000000003</v>
@@ -10790,7 +10790,7 @@
         <v>40.755000000000003</v>
       </c>
       <c r="M66" s="72">
-        <v>28.636000000000003</v>
+        <v>28.635999999999999</v>
       </c>
       <c r="N66" s="72">
         <v>45.789000000000001</v>
@@ -10831,13 +10831,13 @@
         <v>10.068</v>
       </c>
       <c r="L67" s="72">
-        <v>33.905999999999999</v>
+        <v>33.906000000000006</v>
       </c>
       <c r="M67" s="72">
-        <v>11.882999999999999</v>
+        <v>11.883000000000001</v>
       </c>
       <c r="N67" s="72">
-        <v>43.973999999999997</v>
+        <v>43.974000000000004</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="72">
-        <v>43.973999999999997</v>
+        <v>43.974000000000004</v>
       </c>
       <c r="N68" s="72">
         <v>0</v>
@@ -10951,13 +10951,13 @@
         <v>37.158999999999999</v>
       </c>
       <c r="L70" s="72">
-        <v>27.864999999999988</v>
+        <v>27.865000000000002</v>
       </c>
       <c r="M70" s="72">
         <v>3.452</v>
       </c>
       <c r="N70" s="72">
-        <v>65.023999999999987</v>
+        <v>65.024000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -10998,7 +10998,7 @@
         <v>50.022999999999996</v>
       </c>
       <c r="M71" s="72">
-        <v>15.000999999999998</v>
+        <v>15.000999999999999</v>
       </c>
       <c r="N71" s="72">
         <v>74.968999999999994</v>
@@ -11042,7 +11042,7 @@
         <v>63.637999999999991</v>
       </c>
       <c r="M72" s="72">
-        <v>11.331000000000001</v>
+        <v>11.331</v>
       </c>
       <c r="N72" s="72">
         <v>94.842999999999989</v>
@@ -11083,13 +11083,13 @@
         <v>26.015000000000001</v>
       </c>
       <c r="L73" s="72">
-        <v>30.541000000000004</v>
+        <v>30.541000000000011</v>
       </c>
       <c r="M73" s="72">
         <v>64.301999999999992</v>
       </c>
       <c r="N73" s="72">
-        <v>56.556000000000004</v>
+        <v>56.556000000000012</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -12956,16 +12956,16 @@
         <v>70</v>
       </c>
       <c r="K117" s="72">
-        <v>56.456999999999994</v>
+        <v>56.457000000000001</v>
       </c>
       <c r="L117" s="72">
-        <v>80.043000000000035</v>
+        <v>80.043000000000006</v>
       </c>
       <c r="M117" s="72">
         <v>103.084</v>
       </c>
       <c r="N117" s="72">
-        <v>136.50000000000003</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -13006,7 +13006,7 @@
         <v>118.59900000000002</v>
       </c>
       <c r="M118" s="72">
-        <v>17.901</v>
+        <v>17.901000000000003</v>
       </c>
       <c r="N118" s="72">
         <v>190.13400000000001</v>
@@ -13050,7 +13050,7 @@
         <v>107.30799999999999</v>
       </c>
       <c r="M119" s="72">
-        <v>82.826000000000008</v>
+        <v>82.825999999999993</v>
       </c>
       <c r="N119" s="72">
         <v>139.32999999999998</v>
@@ -13170,7 +13170,7 @@
         <v>90.339000000000013</v>
       </c>
       <c r="M122" s="72">
-        <v>28.395000000000003</v>
+        <v>28.395</v>
       </c>
       <c r="N122" s="72">
         <v>145.15200000000002</v>
@@ -14867,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="M162" s="72">
-        <v>111.48399999999999</v>
+        <v>111.48399999999998</v>
       </c>
       <c r="N162" s="72">
         <v>0</v>
@@ -14896,7 +14896,7 @@
         <v>70</v>
       </c>
       <c r="K163" s="72">
-        <v>113.178</v>
+        <v>113.17800000000001</v>
       </c>
       <c r="L163" s="72">
         <v>0</v>
@@ -14905,7 +14905,7 @@
         <v>0</v>
       </c>
       <c r="N163" s="72">
-        <v>113.178</v>
+        <v>113.17800000000001</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -14940,16 +14940,16 @@
         <v>70</v>
       </c>
       <c r="K164" s="72">
-        <v>77.328999999999994</v>
+        <v>77.329000000000008</v>
       </c>
       <c r="L164" s="72">
-        <v>87.219999999999985</v>
+        <v>87.22</v>
       </c>
       <c r="M164" s="72">
         <v>25.957999999999998</v>
       </c>
       <c r="N164" s="72">
-        <v>164.54899999999998</v>
+        <v>164.54900000000001</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -14984,10 +14984,10 @@
         <v>70</v>
       </c>
       <c r="K165" s="72">
-        <v>68.431000000000012</v>
+        <v>68.430999999999997</v>
       </c>
       <c r="L165" s="72">
-        <v>112.20000000000002</v>
+        <v>112.20000000000003</v>
       </c>
       <c r="M165" s="72">
         <v>52.348999999999997</v>
@@ -15034,7 +15034,7 @@
         <v>53.977000000000004</v>
       </c>
       <c r="M166" s="72">
-        <v>126.65400000000001</v>
+        <v>126.654</v>
       </c>
       <c r="N166" s="72">
         <v>85.459000000000003</v>
@@ -15119,13 +15119,13 @@
         <v>22.213000000000001</v>
       </c>
       <c r="L168" s="72">
-        <v>64.954000000000008</v>
+        <v>64.953999999999979</v>
       </c>
       <c r="M168" s="72">
         <v>41.123000000000005</v>
       </c>
       <c r="N168" s="72">
-        <v>87.167000000000002</v>
+        <v>87.166999999999987</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -16631,13 +16631,13 @@
         <v>41.588999999999999</v>
       </c>
       <c r="L204" s="72">
-        <v>91.518000000000029</v>
+        <v>91.518000000000001</v>
       </c>
       <c r="M204" s="72">
-        <v>37.347999999999999</v>
+        <v>37.348000000000006</v>
       </c>
       <c r="N204" s="72">
-        <v>133.10700000000003</v>
+        <v>133.107</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -16678,7 +16678,7 @@
         <v>21.960999999999984</v>
       </c>
       <c r="M205" s="72">
-        <v>111.146</v>
+        <v>111.14600000000002</v>
       </c>
       <c r="N205" s="72">
         <v>96.807999999999993</v>
@@ -17876,7 +17876,7 @@
         <v>70</v>
       </c>
       <c r="K234" s="72">
-        <v>55.826999999999998</v>
+        <v>55.827000000000005</v>
       </c>
       <c r="L234" s="72">
         <v>76.63900000000001</v>
@@ -17920,10 +17920,10 @@
         <v>70</v>
       </c>
       <c r="K235" s="72">
-        <v>59.57</v>
+        <v>59.570000000000007</v>
       </c>
       <c r="L235" s="72">
-        <v>32.948</v>
+        <v>32.947999999999993</v>
       </c>
       <c r="M235" s="72">
         <v>99.518000000000001</v>
@@ -17970,7 +17970,7 @@
         <v>61.653999999999996</v>
       </c>
       <c r="M236" s="72">
-        <v>30.864000000000001</v>
+        <v>30.863999999999997</v>
       </c>
       <c r="N236" s="72">
         <v>86.144999999999996</v>
@@ -19215,13 +19215,13 @@
         <v>56.254000000000005</v>
       </c>
       <c r="L266" s="72">
-        <v>83.373999999999981</v>
+        <v>83.374000000000038</v>
       </c>
       <c r="M266" s="72">
-        <v>36.529000000000003</v>
+        <v>36.528999999999996</v>
       </c>
       <c r="N266" s="72">
-        <v>139.62799999999999</v>
+        <v>139.62800000000004</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
@@ -19262,7 +19262,7 @@
         <v>92.022999999999996</v>
       </c>
       <c r="M267" s="72">
-        <v>47.604999999999997</v>
+        <v>47.605000000000004</v>
       </c>
       <c r="N267" s="72">
         <v>125.34399999999999</v>
@@ -19306,7 +19306,7 @@
         <v>57.72699999999999</v>
       </c>
       <c r="M268" s="72">
-        <v>67.61699999999999</v>
+        <v>67.617000000000004</v>
       </c>
       <c r="N268" s="72">
         <v>99.557999999999993</v>
@@ -19344,13 +19344,13 @@
         <v>70</v>
       </c>
       <c r="K269" s="72">
-        <v>44.174000000000007</v>
+        <v>44.173999999999992</v>
       </c>
       <c r="L269" s="72">
-        <v>73.240999999999985</v>
+        <v>73.241</v>
       </c>
       <c r="M269" s="72">
-        <v>26.317</v>
+        <v>26.317000000000004</v>
       </c>
       <c r="N269" s="72">
         <v>117.41499999999999</v>
@@ -19391,13 +19391,13 @@
         <v>19.664999999999999</v>
       </c>
       <c r="L270" s="72">
-        <v>67.736999999999995</v>
+        <v>67.737000000000023</v>
       </c>
       <c r="M270" s="72">
         <v>49.677999999999997</v>
       </c>
       <c r="N270" s="72">
-        <v>87.402000000000001</v>
+        <v>87.402000000000015</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
@@ -19435,7 +19435,7 @@
         <v>0</v>
       </c>
       <c r="M271" s="72">
-        <v>87.402000000000001</v>
+        <v>87.402000000000015</v>
       </c>
       <c r="N271" s="72">
         <v>0</v>
@@ -20739,13 +20739,13 @@
         <v>34.898000000000003</v>
       </c>
       <c r="L302" s="72">
-        <v>169.21200000000005</v>
+        <v>169.21200000000002</v>
       </c>
       <c r="M302" s="72">
         <v>109.19899999999998</v>
       </c>
       <c r="N302" s="72">
-        <v>204.11000000000004</v>
+        <v>204.11</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
@@ -20827,13 +20827,13 @@
         <v>81.63</v>
       </c>
       <c r="L304" s="72">
-        <v>75.27200000000002</v>
+        <v>75.271999999999991</v>
       </c>
       <c r="M304" s="72">
         <v>16.701000000000001</v>
       </c>
       <c r="N304" s="72">
-        <v>156.90200000000002</v>
+        <v>156.90199999999999</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
@@ -20871,13 +20871,13 @@
         <v>54.334000000000003</v>
       </c>
       <c r="L305" s="72">
-        <v>98.266999999999996</v>
+        <v>98.266999999999967</v>
       </c>
       <c r="M305" s="72">
-        <v>58.635000000000005</v>
+        <v>58.634999999999998</v>
       </c>
       <c r="N305" s="72">
-        <v>152.601</v>
+        <v>152.60099999999997</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
@@ -20915,7 +20915,7 @@
         <v>0</v>
       </c>
       <c r="M306" s="72">
-        <v>152.601</v>
+        <v>152.60099999999997</v>
       </c>
       <c r="N306" s="72">
         <v>0</v>
@@ -22808,7 +22808,7 @@
         <v>70</v>
       </c>
       <c r="K351" s="72">
-        <v>102.318</v>
+        <v>102.31799999999998</v>
       </c>
       <c r="L351" s="72">
         <v>0</v>
@@ -22817,7 +22817,7 @@
         <v>0</v>
       </c>
       <c r="N351" s="72">
-        <v>102.318</v>
+        <v>102.31799999999998</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
@@ -22943,13 +22943,13 @@
         <v>33.284999999999997</v>
       </c>
       <c r="L354" s="72">
-        <v>95.122000000000014</v>
+        <v>95.121999999999986</v>
       </c>
       <c r="M354" s="72">
         <v>19.984000000000002</v>
       </c>
       <c r="N354" s="72">
-        <v>128.40700000000001</v>
+        <v>128.40699999999998</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
@@ -22987,13 +22987,13 @@
         <v>43.521999999999998</v>
       </c>
       <c r="L355" s="72">
-        <v>59.809999999999995</v>
+        <v>59.810000000000009</v>
       </c>
       <c r="M355" s="72">
         <v>68.596999999999994</v>
       </c>
       <c r="N355" s="72">
-        <v>103.33199999999999</v>
+        <v>103.33200000000001</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -23078,7 +23078,7 @@
         <v>94.337000000000018</v>
       </c>
       <c r="M357" s="72">
-        <v>44.819000000000003</v>
+        <v>44.818999999999996</v>
       </c>
       <c r="N357" s="72">
         <v>113.69800000000001</v>
@@ -23119,13 +23119,13 @@
         <v>8.4240000000000013</v>
       </c>
       <c r="L358" s="72">
-        <v>63.876999999999988</v>
+        <v>63.877000000000002</v>
       </c>
       <c r="M358" s="72">
-        <v>49.820999999999998</v>
+        <v>49.820999999999991</v>
       </c>
       <c r="N358" s="72">
-        <v>72.300999999999988</v>
+        <v>72.301000000000002</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.25">
@@ -23163,7 +23163,7 @@
         <v>0</v>
       </c>
       <c r="M359" s="72">
-        <v>72.300999999999988</v>
+        <v>72.301000000000002</v>
       </c>
       <c r="N359" s="72">
         <v>0</v>
@@ -24819,13 +24819,13 @@
         <v>60.5</v>
       </c>
       <c r="L398" s="72">
-        <v>163.78299999999999</v>
+        <v>163.78300000000002</v>
       </c>
       <c r="M398" s="72">
         <v>71.572000000000003</v>
       </c>
       <c r="N398" s="72">
-        <v>224.28299999999999</v>
+        <v>224.28300000000002</v>
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.25">
@@ -24866,7 +24866,7 @@
         <v>146.20600000000002</v>
       </c>
       <c r="M399" s="72">
-        <v>78.077000000000012</v>
+        <v>78.076999999999998</v>
       </c>
       <c r="N399" s="72">
         <v>179.90100000000001</v>
@@ -24992,10 +24992,10 @@
         <v>70</v>
       </c>
       <c r="K402" s="72">
-        <v>69.294999999999987</v>
+        <v>69.295000000000002</v>
       </c>
       <c r="L402" s="72">
-        <v>78.198000000000008</v>
+        <v>78.197999999999993</v>
       </c>
       <c r="M402" s="72">
         <v>12.808</v>
@@ -25039,13 +25039,13 @@
         <v>45.963999999999999</v>
       </c>
       <c r="L403" s="72">
-        <v>102.26300000000001</v>
+        <v>102.26300000000003</v>
       </c>
       <c r="M403" s="72">
         <v>45.230000000000004</v>
       </c>
       <c r="N403" s="72">
-        <v>148.227</v>
+        <v>148.22700000000003</v>
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.25">
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="M404" s="72">
-        <v>148.227</v>
+        <v>148.22700000000003</v>
       </c>
       <c r="N404" s="72">
         <v>0</v>
@@ -25112,7 +25112,7 @@
         <v>70</v>
       </c>
       <c r="K405" s="72">
-        <v>105.04199999999999</v>
+        <v>105.042</v>
       </c>
       <c r="L405" s="72">
         <v>0</v>
@@ -25121,7 +25121,7 @@
         <v>0</v>
       </c>
       <c r="N405" s="72">
-        <v>105.04199999999999</v>
+        <v>105.042</v>
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.25">
@@ -27167,13 +27167,13 @@
         <v>32.862000000000002</v>
       </c>
       <c r="L453" s="72">
-        <v>94.205000000000013</v>
+        <v>94.204999999999984</v>
       </c>
       <c r="M453" s="72">
-        <v>22.134999999999998</v>
+        <v>22.135000000000002</v>
       </c>
       <c r="N453" s="72">
-        <v>127.06700000000001</v>
+        <v>127.06699999999999</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.25">
@@ -27208,16 +27208,16 @@
         <v>70</v>
       </c>
       <c r="K454" s="72">
-        <v>22.685000000000002</v>
+        <v>22.684999999999999</v>
       </c>
       <c r="L454" s="72">
-        <v>60.789999999999992</v>
+        <v>60.790000000000006</v>
       </c>
       <c r="M454" s="72">
-        <v>66.277000000000015</v>
+        <v>66.277000000000001</v>
       </c>
       <c r="N454" s="72">
-        <v>83.474999999999994</v>
+        <v>83.475000000000009</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.25">
@@ -27302,7 +27302,7 @@
         <v>113.35600000000001</v>
       </c>
       <c r="M456" s="72">
-        <v>21.767999999999997</v>
+        <v>21.768000000000001</v>
       </c>
       <c r="N456" s="72">
         <v>133.06100000000001</v>
@@ -27346,7 +27346,7 @@
         <v>110.965</v>
       </c>
       <c r="M457" s="72">
-        <v>22.096</v>
+        <v>22.095999999999997</v>
       </c>
       <c r="N457" s="72">
         <v>121.35900000000001</v>
@@ -27463,13 +27463,13 @@
         <v>16.013999999999999</v>
       </c>
       <c r="L460" s="72">
-        <v>80.653999999999996</v>
+        <v>80.654000000000011</v>
       </c>
       <c r="M460" s="72">
-        <v>32.927000000000007</v>
+        <v>32.927</v>
       </c>
       <c r="N460" s="72">
-        <v>96.667999999999992</v>
+        <v>96.668000000000006</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.25">
@@ -27507,13 +27507,13 @@
         <v>28.637</v>
       </c>
       <c r="L461" s="72">
-        <v>82.433000000000007</v>
+        <v>82.433000000000021</v>
       </c>
       <c r="M461" s="72">
         <v>14.234999999999999</v>
       </c>
       <c r="N461" s="72">
-        <v>111.07000000000001</v>
+        <v>111.07000000000002</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.25">
@@ -29427,13 +29427,13 @@
         <v>17.640999999999998</v>
       </c>
       <c r="L506" s="72">
-        <v>82.926000000000016</v>
+        <v>82.925999999999988</v>
       </c>
       <c r="M506" s="72">
-        <v>14.183999999999997</v>
+        <v>14.184000000000001</v>
       </c>
       <c r="N506" s="72">
-        <v>100.56700000000001</v>
+        <v>100.56699999999999</v>
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.25">
@@ -29471,13 +29471,13 @@
         <v>60.477999999999994</v>
       </c>
       <c r="L507" s="72">
-        <v>40.546999999999997</v>
+        <v>40.547000000000011</v>
       </c>
       <c r="M507" s="72">
-        <v>60.02</v>
+        <v>60.02000000000001</v>
       </c>
       <c r="N507" s="72">
-        <v>101.02499999999999</v>
+        <v>101.02500000000001</v>
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.25">
@@ -29565,7 +29565,7 @@
         <v>8.7399999999999984</v>
       </c>
       <c r="N509" s="72">
-        <v>23.782</v>
+        <v>23.781999999999996</v>
       </c>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.25">
@@ -29600,13 +29600,13 @@
         <v>70</v>
       </c>
       <c r="K510" s="72">
-        <v>13.603999999999999</v>
+        <v>13.604000000000003</v>
       </c>
       <c r="L510" s="72">
-        <v>13.159999999999997</v>
+        <v>13.159999999999993</v>
       </c>
       <c r="M510" s="72">
-        <v>10.622000000000002</v>
+        <v>10.622</v>
       </c>
       <c r="N510" s="72">
         <v>26.763999999999996</v>
@@ -29647,13 +29647,13 @@
         <v>6.1920000000000002</v>
       </c>
       <c r="L511" s="72">
-        <v>9.7619999999999987</v>
+        <v>9.7619999999999969</v>
       </c>
       <c r="M511" s="72">
         <v>17.002000000000002</v>
       </c>
       <c r="N511" s="72">
-        <v>15.953999999999999</v>
+        <v>15.953999999999997</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.25">
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="M512" s="72">
-        <v>15.953999999999999</v>
+        <v>15.953999999999997</v>
       </c>
       <c r="N512" s="72">
         <v>0</v>
@@ -31939,13 +31939,13 @@
         <v>36.650999999999996</v>
       </c>
       <c r="L565" s="72">
-        <v>14.266000000000005</v>
+        <v>14.266000000000012</v>
       </c>
       <c r="M565" s="72">
         <v>2.3929999999999998</v>
       </c>
       <c r="N565" s="72">
-        <v>50.917000000000002</v>
+        <v>50.917000000000009</v>
       </c>
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.25">
@@ -32027,13 +32027,13 @@
         <v>32.658000000000001</v>
       </c>
       <c r="L567" s="72">
-        <v>29.689</v>
+        <v>29.689000000000007</v>
       </c>
       <c r="M567" s="72">
-        <v>43.756999999999998</v>
+        <v>43.757000000000005</v>
       </c>
       <c r="N567" s="72">
-        <v>62.347000000000001</v>
+        <v>62.347000000000008</v>
       </c>
     </row>
     <row r="568" spans="1:14" x14ac:dyDescent="0.25">
@@ -33404,7 +33404,7 @@
         <v>70</v>
       </c>
       <c r="K600" s="72">
-        <v>46.942</v>
+        <v>46.942000000000007</v>
       </c>
       <c r="L600" s="72">
         <v>0</v>
@@ -33413,7 +33413,7 @@
         <v>0</v>
       </c>
       <c r="N600" s="72">
-        <v>46.942</v>
+        <v>46.942000000000007</v>
       </c>
     </row>
     <row r="601" spans="1:14" x14ac:dyDescent="0.25">
@@ -33448,10 +33448,10 @@
         <v>70</v>
       </c>
       <c r="K601" s="72">
-        <v>73.605000000000004</v>
+        <v>73.60499999999999</v>
       </c>
       <c r="L601" s="72">
-        <v>27.353999999999999</v>
+        <v>27.354000000000013</v>
       </c>
       <c r="M601" s="72">
         <v>19.588000000000001</v>
@@ -33492,10 +33492,10 @@
         <v>70</v>
       </c>
       <c r="K602" s="72">
-        <v>47.34</v>
+        <v>47.339999999999996</v>
       </c>
       <c r="L602" s="72">
-        <v>48.376000000000005</v>
+        <v>48.376000000000012</v>
       </c>
       <c r="M602" s="72">
         <v>52.582999999999998</v>
@@ -33536,10 +33536,10 @@
         <v>70</v>
       </c>
       <c r="K603" s="72">
-        <v>45.087000000000003</v>
+        <v>45.086999999999996</v>
       </c>
       <c r="L603" s="72">
-        <v>57.325999999999993</v>
+        <v>57.326000000000001</v>
       </c>
       <c r="M603" s="72">
         <v>38.39</v>
@@ -34843,13 +34843,13 @@
         <v>56.911000000000001</v>
       </c>
       <c r="L634" s="72">
-        <v>25.431000000000012</v>
+        <v>25.430999999999997</v>
       </c>
       <c r="M634" s="72">
         <v>7.0469999999999997</v>
       </c>
       <c r="N634" s="72">
-        <v>82.342000000000013</v>
+        <v>82.341999999999999</v>
       </c>
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.25">
@@ -34887,7 +34887,7 @@
         <v>0</v>
       </c>
       <c r="M635" s="72">
-        <v>82.342000000000013</v>
+        <v>82.341999999999999</v>
       </c>
       <c r="N635" s="72">
         <v>0</v>
@@ -36478,7 +36478,7 @@
         <v>22.199999999999996</v>
       </c>
       <c r="M673" s="72">
-        <v>14.789</v>
+        <v>14.789000000000001</v>
       </c>
       <c r="N673" s="72">
         <v>36.406999999999996</v>
@@ -36519,13 +36519,13 @@
         <v>13.381</v>
       </c>
       <c r="L674" s="72">
-        <v>2.7750000000000021</v>
+        <v>2.7749999999999986</v>
       </c>
       <c r="M674" s="72">
         <v>33.632000000000005</v>
       </c>
       <c r="N674" s="72">
-        <v>16.156000000000002</v>
+        <v>16.155999999999999</v>
       </c>
     </row>
     <row r="675" spans="1:14" x14ac:dyDescent="0.25">
@@ -36560,13 +36560,13 @@
         <v>70</v>
       </c>
       <c r="K675" s="72">
-        <v>25.469000000000001</v>
+        <v>25.468999999999998</v>
       </c>
       <c r="L675" s="72">
-        <v>7.3659999999999997</v>
+        <v>7.3660000000000032</v>
       </c>
       <c r="M675" s="72">
-        <v>8.7899999999999991</v>
+        <v>8.7900000000000009</v>
       </c>
       <c r="N675" s="72">
         <v>32.835000000000001</v>
@@ -36604,16 +36604,16 @@
         <v>70</v>
       </c>
       <c r="K676" s="72">
-        <v>9.0120000000000005</v>
+        <v>9.0120000000000022</v>
       </c>
       <c r="L676" s="72">
-        <v>21.258000000000003</v>
+        <v>21.257999999999996</v>
       </c>
       <c r="M676" s="72">
-        <v>11.577000000000002</v>
+        <v>11.577</v>
       </c>
       <c r="N676" s="72">
-        <v>30.270000000000003</v>
+        <v>30.269999999999996</v>
       </c>
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.25">
@@ -36651,7 +36651,7 @@
         <v>0</v>
       </c>
       <c r="M677" s="72">
-        <v>30.270000000000003</v>
+        <v>30.269999999999996</v>
       </c>
       <c r="N677" s="72">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>51.488000000000007</v>
       </c>
       <c r="M710" s="72">
-        <v>22.824999999999996</v>
+        <v>22.824999999999999</v>
       </c>
       <c r="N710" s="72">
         <v>72.585000000000008</v>
@@ -38075,13 +38075,13 @@
         <v>16.548000000000002</v>
       </c>
       <c r="L711" s="72">
-        <v>22.274999999999999</v>
+        <v>22.275000000000006</v>
       </c>
       <c r="M711" s="72">
         <v>50.31</v>
       </c>
       <c r="N711" s="72">
-        <v>38.823</v>
+        <v>38.823000000000008</v>
       </c>
     </row>
     <row r="712" spans="1:14" x14ac:dyDescent="0.25">
@@ -38122,7 +38122,7 @@
         <v>25.620999999999995</v>
       </c>
       <c r="M712" s="72">
-        <v>13.202000000000002</v>
+        <v>13.202</v>
       </c>
       <c r="N712" s="72">
         <v>36.712999999999994</v>
@@ -39452,7 +39452,7 @@
         <v>70</v>
       </c>
       <c r="K744" s="72">
-        <v>92.551999999999992</v>
+        <v>92.552000000000007</v>
       </c>
       <c r="L744" s="72">
         <v>0</v>
@@ -39461,7 +39461,7 @@
         <v>0</v>
       </c>
       <c r="N744" s="72">
-        <v>92.551999999999992</v>
+        <v>92.552000000000007</v>
       </c>
     </row>
     <row r="745" spans="1:14" x14ac:dyDescent="0.25">
@@ -39543,13 +39543,13 @@
         <v>19.198999999999998</v>
       </c>
       <c r="L746" s="72">
-        <v>26.483000000000004</v>
+        <v>26.483000000000011</v>
       </c>
       <c r="M746" s="72">
         <v>58.573</v>
       </c>
       <c r="N746" s="72">
-        <v>45.682000000000002</v>
+        <v>45.682000000000009</v>
       </c>
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.25">
@@ -41058,7 +41058,7 @@
         <v>77.390999999999991</v>
       </c>
       <c r="M782" s="72">
-        <v>59.644000000000005</v>
+        <v>59.643999999999998</v>
       </c>
       <c r="N782" s="72">
         <v>112.70699999999999</v>
@@ -41146,7 +41146,7 @@
         <v>21.821999999999996</v>
       </c>
       <c r="M784" s="72">
-        <v>40.420999999999999</v>
+        <v>40.421000000000006</v>
       </c>
       <c r="N784" s="72">
         <v>32.900999999999996</v>
@@ -42523,13 +42523,13 @@
         <v>50.69</v>
       </c>
       <c r="L817" s="72">
-        <v>53.134</v>
+        <v>53.133999999999986</v>
       </c>
       <c r="M817" s="72">
         <v>11.722999999999999</v>
       </c>
       <c r="N817" s="72">
-        <v>103.824</v>
+        <v>103.82399999999998</v>
       </c>
     </row>
     <row r="818" spans="1:14" x14ac:dyDescent="0.25">
@@ -42564,16 +42564,16 @@
         <v>70</v>
       </c>
       <c r="K818" s="72">
-        <v>52.572999999999993</v>
+        <v>52.573</v>
       </c>
       <c r="L818" s="72">
-        <v>73.810999999999993</v>
+        <v>73.811000000000007</v>
       </c>
       <c r="M818" s="72">
-        <v>30.013000000000002</v>
+        <v>30.012999999999998</v>
       </c>
       <c r="N818" s="72">
-        <v>126.38399999999999</v>
+        <v>126.38400000000001</v>
       </c>
     </row>
     <row r="819" spans="1:14" x14ac:dyDescent="0.25">
@@ -42608,13 +42608,13 @@
         <v>70</v>
       </c>
       <c r="K819" s="72">
-        <v>68.085000000000008</v>
+        <v>68.084999999999994</v>
       </c>
       <c r="L819" s="72">
-        <v>85.331999999999965</v>
+        <v>85.331999999999979</v>
       </c>
       <c r="M819" s="72">
-        <v>41.052</v>
+        <v>41.052000000000007</v>
       </c>
       <c r="N819" s="72">
         <v>153.41699999999997</v>
@@ -42661,7 +42661,7 @@
         <v>119.113</v>
       </c>
       <c r="N820" s="72">
-        <v>43.988999999999997</v>
+        <v>43.989000000000004</v>
       </c>
     </row>
     <row r="821" spans="1:14" x14ac:dyDescent="0.25">
@@ -42699,7 +42699,7 @@
         <v>0</v>
       </c>
       <c r="M821" s="72">
-        <v>43.988999999999997</v>
+        <v>43.989000000000004</v>
       </c>
       <c r="N821" s="72">
         <v>0</v>
@@ -43988,7 +43988,7 @@
         <v>70</v>
       </c>
       <c r="K852" s="72">
-        <v>80.527000000000001</v>
+        <v>80.527000000000015</v>
       </c>
       <c r="L852" s="72">
         <v>0</v>
@@ -43997,7 +43997,7 @@
         <v>0</v>
       </c>
       <c r="N852" s="72">
-        <v>80.527000000000001</v>
+        <v>80.527000000000015</v>
       </c>
     </row>
     <row r="853" spans="1:14" x14ac:dyDescent="0.25">
@@ -44032,10 +44032,10 @@
         <v>70</v>
       </c>
       <c r="K853" s="72">
-        <v>18.272000000000002</v>
+        <v>18.271999999999998</v>
       </c>
       <c r="L853" s="72">
-        <v>52.713999999999999</v>
+        <v>52.714000000000006</v>
       </c>
       <c r="M853" s="72">
         <v>27.813000000000002</v>
@@ -44079,13 +44079,13 @@
         <v>5.234</v>
       </c>
       <c r="L854" s="72">
-        <v>9.902000000000001</v>
+        <v>9.9019999999999975</v>
       </c>
       <c r="M854" s="72">
         <v>61.084000000000003</v>
       </c>
       <c r="N854" s="72">
-        <v>15.136000000000001</v>
+        <v>15.135999999999997</v>
       </c>
     </row>
     <row r="855" spans="1:14" x14ac:dyDescent="0.25">
@@ -44123,13 +44123,13 @@
         <v>19.020000000000003</v>
       </c>
       <c r="L855" s="72">
-        <v>2.8810000000000002</v>
+        <v>2.8809999999999967</v>
       </c>
       <c r="M855" s="72">
-        <v>12.255000000000001</v>
+        <v>12.254999999999999</v>
       </c>
       <c r="N855" s="72">
-        <v>21.901000000000003</v>
+        <v>21.901</v>
       </c>
     </row>
     <row r="856" spans="1:14" x14ac:dyDescent="0.25">
@@ -44167,13 +44167,13 @@
         <v>4.2170000000000005</v>
       </c>
       <c r="L856" s="72">
-        <v>7.0639999999999983</v>
+        <v>7.0640000000000001</v>
       </c>
       <c r="M856" s="72">
         <v>14.837</v>
       </c>
       <c r="N856" s="72">
-        <v>11.280999999999999</v>
+        <v>11.281000000000001</v>
       </c>
     </row>
     <row r="857" spans="1:14" x14ac:dyDescent="0.25">
@@ -45336,16 +45336,16 @@
         <v>70</v>
       </c>
       <c r="K884" s="72">
-        <v>28.584000000000003</v>
+        <v>28.584</v>
       </c>
       <c r="L884" s="72">
-        <v>55.317999999999984</v>
+        <v>55.317999999999998</v>
       </c>
       <c r="M884" s="72">
         <v>20.327000000000005</v>
       </c>
       <c r="N884" s="72">
-        <v>83.901999999999987</v>
+        <v>83.902000000000001</v>
       </c>
     </row>
     <row r="885" spans="1:14" x14ac:dyDescent="0.25">
@@ -45383,13 +45383,13 @@
         <v>27.363</v>
       </c>
       <c r="L885" s="72">
-        <v>31.146999999999991</v>
+        <v>31.147000000000006</v>
       </c>
       <c r="M885" s="72">
-        <v>52.754999999999995</v>
+        <v>52.755000000000003</v>
       </c>
       <c r="N885" s="72">
-        <v>58.509999999999991</v>
+        <v>58.510000000000005</v>
       </c>
     </row>
     <row r="886" spans="1:14" x14ac:dyDescent="0.25">
@@ -45427,13 +45427,13 @@
         <v>26.228000000000002</v>
       </c>
       <c r="L886" s="72">
-        <v>46.727999999999987</v>
+        <v>46.728000000000002</v>
       </c>
       <c r="M886" s="72">
         <v>11.782</v>
       </c>
       <c r="N886" s="72">
-        <v>72.955999999999989</v>
+        <v>72.956000000000003</v>
       </c>
     </row>
     <row r="887" spans="1:14" x14ac:dyDescent="0.25">
@@ -45471,7 +45471,7 @@
         <v>0</v>
       </c>
       <c r="M887" s="72">
-        <v>72.955999999999989</v>
+        <v>72.956000000000003</v>
       </c>
       <c r="N887" s="72">
         <v>0</v>
@@ -46851,13 +46851,13 @@
         <v>20.965</v>
       </c>
       <c r="L920" s="72">
-        <v>24.323000000000004</v>
+        <v>24.322999999999997</v>
       </c>
       <c r="M920" s="72">
         <v>61.035000000000004</v>
       </c>
       <c r="N920" s="72">
-        <v>45.288000000000004</v>
+        <v>45.287999999999997</v>
       </c>
     </row>
     <row r="921" spans="1:14" x14ac:dyDescent="0.25">
@@ -46895,13 +46895,13 @@
         <v>13.983000000000001</v>
       </c>
       <c r="L921" s="72">
-        <v>32.329000000000008</v>
+        <v>32.328999999999994</v>
       </c>
       <c r="M921" s="72">
         <v>12.959</v>
       </c>
       <c r="N921" s="72">
-        <v>46.312000000000005</v>
+        <v>46.311999999999998</v>
       </c>
     </row>
     <row r="922" spans="1:14" x14ac:dyDescent="0.25">
@@ -46942,7 +46942,7 @@
         <v>36.903000000000006</v>
       </c>
       <c r="M922" s="72">
-        <v>9.4089999999999989</v>
+        <v>9.4090000000000007</v>
       </c>
       <c r="N922" s="72">
         <v>74.186000000000007</v>
@@ -47056,7 +47056,7 @@
         <v>70</v>
       </c>
       <c r="K925" s="72">
-        <v>27.722999999999999</v>
+        <v>27.723000000000003</v>
       </c>
       <c r="L925" s="72">
         <v>41.01700000000001</v>
@@ -48574,7 +48574,7 @@
         <v>36.498000000000005</v>
       </c>
       <c r="M961" s="72">
-        <v>12.824999999999999</v>
+        <v>12.825000000000001</v>
       </c>
       <c r="N961" s="72">
         <v>48.567000000000007</v>
@@ -48659,13 +48659,13 @@
         <v>13.187000000000001</v>
       </c>
       <c r="L963" s="72">
-        <v>18.702000000000002</v>
+        <v>18.701999999999998</v>
       </c>
       <c r="M963" s="72">
         <v>36.908000000000001</v>
       </c>
       <c r="N963" s="72">
-        <v>31.889000000000003</v>
+        <v>31.888999999999999</v>
       </c>
     </row>
     <row r="964" spans="1:14" x14ac:dyDescent="0.25">
@@ -48706,7 +48706,7 @@
         <v>19.274000000000001</v>
       </c>
       <c r="M964" s="72">
-        <v>12.615</v>
+        <v>12.614999999999998</v>
       </c>
       <c r="N964" s="72">
         <v>35.384</v>
@@ -50130,7 +50130,7 @@
         <v>38.232000000000006</v>
       </c>
       <c r="M998" s="72">
-        <v>11.325000000000001</v>
+        <v>11.324999999999999</v>
       </c>
       <c r="N998" s="72">
         <v>56.763000000000005</v>
@@ -50168,16 +50168,16 @@
         <v>70</v>
       </c>
       <c r="K999" s="72">
-        <v>11.859000000000002</v>
+        <v>11.859</v>
       </c>
       <c r="L999" s="72">
         <v>2.7859999999999996</v>
       </c>
       <c r="M999" s="72">
-        <v>53.976999999999997</v>
+        <v>53.977000000000004</v>
       </c>
       <c r="N999" s="72">
-        <v>14.645000000000001</v>
+        <v>14.645</v>
       </c>
     </row>
     <row r="1000" spans="1:14" x14ac:dyDescent="0.25">
@@ -51598,7 +51598,7 @@
         <v>4.0450000000000017</v>
       </c>
       <c r="M1033" s="72">
-        <v>7.0459999999999994</v>
+        <v>7.0460000000000003</v>
       </c>
       <c r="N1033" s="72">
         <v>17.475000000000001</v>
@@ -53110,7 +53110,7 @@
         <v>22.921000000000006</v>
       </c>
       <c r="M1069" s="72">
-        <v>57.133000000000003</v>
+        <v>57.13300000000001</v>
       </c>
       <c r="N1069" s="72">
         <v>37.611000000000004</v>
@@ -53195,13 +53195,13 @@
         <v>3.7770000000000001</v>
       </c>
       <c r="L1071" s="72">
-        <v>20.806999999999999</v>
+        <v>20.807000000000002</v>
       </c>
       <c r="M1071" s="72">
-        <v>14.249000000000001</v>
+        <v>14.248999999999999</v>
       </c>
       <c r="N1071" s="72">
-        <v>24.584</v>
+        <v>24.584000000000003</v>
       </c>
     </row>
     <row r="1072" spans="1:14" x14ac:dyDescent="0.25">
@@ -53239,13 +53239,13 @@
         <v>1.879</v>
       </c>
       <c r="L1072" s="72">
-        <v>15.590999999999999</v>
+        <v>15.591000000000003</v>
       </c>
       <c r="M1072" s="72">
-        <v>8.9930000000000021</v>
+        <v>8.9930000000000003</v>
       </c>
       <c r="N1072" s="72">
-        <v>17.47</v>
+        <v>17.470000000000002</v>
       </c>
     </row>
     <row r="1073" spans="1:14" x14ac:dyDescent="0.25">
@@ -53283,7 +53283,7 @@
         <v>0</v>
       </c>
       <c r="M1073" s="72">
-        <v>17.47</v>
+        <v>17.470000000000002</v>
       </c>
       <c r="N1073" s="72">
         <v>0</v>
@@ -54616,7 +54616,7 @@
         <v>70</v>
       </c>
       <c r="K1105" s="72">
-        <v>18.549000000000003</v>
+        <v>18.548999999999999</v>
       </c>
       <c r="L1105" s="72">
         <v>139.631</v>
@@ -54748,13 +54748,13 @@
         <v>70</v>
       </c>
       <c r="K1108" s="72">
-        <v>32.549000000000007</v>
+        <v>32.548999999999999</v>
       </c>
       <c r="L1108" s="72">
-        <v>33.10799999999999</v>
+        <v>33.107999999999997</v>
       </c>
       <c r="M1108" s="72">
-        <v>87.082000000000008</v>
+        <v>87.081999999999994</v>
       </c>
       <c r="N1108" s="72">
         <v>65.656999999999996</v>
@@ -56175,13 +56175,13 @@
         <v>8.7810000000000006</v>
       </c>
       <c r="L1142" s="72">
-        <v>15.466999999999997</v>
+        <v>15.467000000000001</v>
       </c>
       <c r="M1142" s="72">
         <v>10.068999999999999</v>
       </c>
       <c r="N1142" s="72">
-        <v>24.247999999999998</v>
+        <v>24.248000000000001</v>
       </c>
     </row>
     <row r="1143" spans="1:14" x14ac:dyDescent="0.25">
@@ -56263,13 +56263,13 @@
         <v>6.1920000000000002</v>
       </c>
       <c r="L1144" s="72">
-        <v>18.626999999999995</v>
+        <v>18.626999999999999</v>
       </c>
       <c r="M1144" s="72">
-        <v>4.4410000000000007</v>
+        <v>4.4409999999999998</v>
       </c>
       <c r="N1144" s="72">
-        <v>24.818999999999996</v>
+        <v>24.818999999999999</v>
       </c>
     </row>
     <row r="1145" spans="1:14" x14ac:dyDescent="0.25">
@@ -56307,7 +56307,7 @@
         <v>0</v>
       </c>
       <c r="M1145" s="72">
-        <v>24.818999999999996</v>
+        <v>24.818999999999999</v>
       </c>
       <c r="N1145" s="72">
         <v>0</v>
@@ -57596,7 +57596,7 @@
         <v>70</v>
       </c>
       <c r="K1176" s="72">
-        <v>121.76599999999999</v>
+        <v>121.76600000000001</v>
       </c>
       <c r="L1176" s="72">
         <v>0</v>
@@ -57605,7 +57605,7 @@
         <v>0</v>
       </c>
       <c r="N1176" s="72">
-        <v>121.76599999999999</v>
+        <v>121.76600000000001</v>
       </c>
     </row>
     <row r="1177" spans="1:14" x14ac:dyDescent="0.25">
@@ -57643,13 +57643,13 @@
         <v>25.466000000000001</v>
       </c>
       <c r="L1177" s="72">
-        <v>110.98700000000002</v>
+        <v>110.98699999999997</v>
       </c>
       <c r="M1177" s="72">
         <v>10.779</v>
       </c>
       <c r="N1177" s="72">
-        <v>136.45300000000003</v>
+        <v>136.45299999999997</v>
       </c>
     </row>
     <row r="1178" spans="1:14" x14ac:dyDescent="0.25">
@@ -57734,7 +57734,7 @@
         <v>77.009999999999991</v>
       </c>
       <c r="M1179" s="72">
-        <v>18.614000000000001</v>
+        <v>18.613999999999997</v>
       </c>
       <c r="N1179" s="72">
         <v>111.548</v>
@@ -57775,13 +57775,13 @@
         <v>12.252000000000001</v>
       </c>
       <c r="L1180" s="72">
-        <v>44.007000000000005</v>
+        <v>44.006999999999998</v>
       </c>
       <c r="M1180" s="72">
         <v>67.540999999999997</v>
       </c>
       <c r="N1180" s="72">
-        <v>56.259000000000007</v>
+        <v>56.259</v>
       </c>
     </row>
     <row r="1181" spans="1:14" x14ac:dyDescent="0.25">
@@ -57819,7 +57819,7 @@
         <v>0</v>
       </c>
       <c r="M1181" s="72">
-        <v>56.259000000000007</v>
+        <v>56.259</v>
       </c>
       <c r="N1181" s="72">
         <v>0</v>
@@ -61607,13 +61607,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>258.13925000000006</v>
+        <v>258.13924999999995</v>
       </c>
       <c r="H6" s="72">
         <v>280</v>
       </c>
       <c r="I6" s="76">
-        <v>0.9219258928571431</v>
+        <v>0.92192589285714266</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -61636,13 +61636,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>46.930250000000015</v>
+        <v>46.930250000000001</v>
       </c>
       <c r="H7" s="72">
         <v>280</v>
       </c>
       <c r="I7" s="76">
-        <v>0.16760803571428576</v>
+        <v>0.16760803571428573</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -61723,13 +61723,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>247.16699999999997</v>
+        <v>247.16699999999989</v>
       </c>
       <c r="H10" s="72">
         <v>350</v>
       </c>
       <c r="I10" s="76">
-        <v>0.70619142857142847</v>
+        <v>0.70619142857142825</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -61752,13 +61752,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>61.11975000000001</v>
+        <v>61.119750000000003</v>
       </c>
       <c r="H11" s="72">
         <v>350</v>
       </c>
       <c r="I11" s="76">
-        <v>0.17462785714285717</v>
+        <v>0.17462785714285714</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -61839,13 +61839,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>64.597500000000025</v>
+        <v>64.597499999999997</v>
       </c>
       <c r="H14" s="72">
         <v>140</v>
       </c>
       <c r="I14" s="76">
-        <v>0.46141071428571445</v>
+        <v>0.46141071428571429</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -61868,13 +61868,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>81.609250000000017</v>
+        <v>81.609250000000031</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.58292321428571436</v>
+        <v>0.58292321428571447</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -61926,13 +61926,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>112.29450000000006</v>
+        <v>112.2945</v>
       </c>
       <c r="H17" s="72">
         <v>420</v>
       </c>
       <c r="I17" s="76">
-        <v>0.26736785714285727</v>
+        <v>0.26736785714285716</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -61955,13 +61955,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.9</v>
+        <v>40.900000000000006</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.5842857142857143</v>
+        <v>0.58428571428571441</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -61984,13 +61984,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.378000000000007</v>
+        <v>50.378000000000014</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.71968571428571437</v>
+        <v>0.71968571428571448</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -62013,13 +62013,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="72">
-        <v>21.5975</v>
+        <v>21.597499999999997</v>
       </c>
       <c r="H20" s="72">
         <v>70</v>
       </c>
       <c r="I20" s="76">
-        <v>0.3085357142857143</v>
+        <v>0.30853571428571425</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -62129,13 +62129,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135749999999994</v>
+        <v>61.135750000000002</v>
       </c>
       <c r="H24" s="72">
         <v>70</v>
       </c>
       <c r="I24" s="76">
-        <v>0.87336785714285703</v>
+        <v>0.87336785714285714</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -62245,13 +62245,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>157.67649999999998</v>
+        <v>157.67649999999992</v>
       </c>
       <c r="H28" s="72">
         <v>210</v>
       </c>
       <c r="I28" s="76">
-        <v>0.75084047619047611</v>
+        <v>0.75084047619047578</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -62274,13 +62274,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>93.04249999999999</v>
+        <v>93.042500000000018</v>
       </c>
       <c r="H29" s="72">
         <v>210</v>
       </c>
       <c r="I29" s="76">
-        <v>0.44305952380952374</v>
+        <v>0.4430595238095239</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -62332,13 +62332,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>29.641249999999999</v>
+        <v>29.641250000000003</v>
       </c>
       <c r="H31" s="72">
         <v>70</v>
       </c>
       <c r="I31" s="76">
-        <v>0.42344642857142856</v>
+        <v>0.42344642857142861</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -62361,13 +62361,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>101.31725000000002</v>
+        <v>101.31725</v>
       </c>
       <c r="H32" s="72">
         <v>210</v>
       </c>
       <c r="I32" s="76">
-        <v>0.48246309523809533</v>
+        <v>0.48246309523809522</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -62419,13 +62419,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>627.52124999999864</v>
+        <v>627.5212499999999</v>
       </c>
       <c r="H34" s="72">
         <v>840</v>
       </c>
       <c r="I34" s="76">
-        <v>0.74704910714285555</v>
+        <v>0.74704910714285699</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -62477,13 +62477,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>43.74349999999999</v>
+        <v>43.743500000000012</v>
       </c>
       <c r="H36" s="72">
         <v>70</v>
       </c>
       <c r="I36" s="76">
-        <v>0.62490714285714277</v>
+        <v>0.62490714285714299</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -62651,13 +62651,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>64.462500000000006</v>
+        <v>64.46250000000002</v>
       </c>
       <c r="H42" s="72">
         <v>70</v>
       </c>
       <c r="I42" s="76">
-        <v>0.92089285714285718</v>
+        <v>0.9208928571428574</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -62767,13 +62767,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>87.458249999999992</v>
+        <v>87.458249999999978</v>
       </c>
       <c r="H46" s="72">
         <v>140</v>
       </c>
       <c r="I46" s="76">
-        <v>0.6247017857142857</v>
+        <v>0.62470178571428558</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -62825,13 +62825,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>63.28775000000001</v>
+        <v>63.287749999999988</v>
       </c>
       <c r="H48" s="72">
         <v>70</v>
       </c>
       <c r="I48" s="76">
-        <v>0.90411071428571443</v>
+        <v>0.9041107142857141</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -62854,13 +62854,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>49.45675</v>
+        <v>49.456750000000007</v>
       </c>
       <c r="H49" s="72">
         <v>70</v>
       </c>
       <c r="I49" s="76">
-        <v>0.70652499999999996</v>
+        <v>0.70652500000000007</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -62883,13 +62883,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>94.289999999999992</v>
+        <v>94.29000000000002</v>
       </c>
       <c r="H50" s="72">
         <v>210</v>
       </c>
       <c r="I50" s="76">
-        <v>0.44899999999999995</v>
+        <v>0.44900000000000012</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -62941,13 +62941,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>306.43799999999987</v>
+        <v>306.43799999999976</v>
       </c>
       <c r="H52" s="72">
         <v>630</v>
       </c>
       <c r="I52" s="76">
-        <v>0.48640952380952363</v>
+        <v>0.4864095238095234</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -62970,13 +62970,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>451.33724999999947</v>
+        <v>451.33724999999964</v>
       </c>
       <c r="H53" s="72">
         <v>630</v>
       </c>
       <c r="I53" s="76">
-        <v>0.71640833333333254</v>
+        <v>0.71640833333333276</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -62999,13 +62999,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>43.96725</v>
+        <v>43.967249999999993</v>
       </c>
       <c r="H54" s="72">
         <v>70</v>
       </c>
       <c r="I54" s="76">
-        <v>0.62810357142857143</v>
+        <v>0.62810357142857132</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -63028,13 +63028,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>63.393750000000004</v>
+        <v>63.393750000000018</v>
       </c>
       <c r="H55" s="72">
         <v>70</v>
       </c>
       <c r="I55" s="76">
-        <v>0.90562500000000001</v>
+        <v>0.90562500000000024</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -63057,13 +63057,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="72">
-        <v>47.313000000000002</v>
+        <v>47.312999999999988</v>
       </c>
       <c r="H56" s="72">
         <v>70</v>
       </c>
       <c r="I56" s="76">
-        <v>0.67590000000000006</v>
+        <v>0.67589999999999983</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -63173,13 +63173,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>62.991000000000014</v>
+        <v>62.991000000000007</v>
       </c>
       <c r="H60" s="72">
         <v>70</v>
       </c>
       <c r="I60" s="76">
-        <v>0.89987142857142877</v>
+        <v>0.89987142857142866</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -63289,13 +63289,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>212.85324999999992</v>
+        <v>212.85325</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>1.0135869047619044</v>
+        <v>1.0135869047619048</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -63318,13 +63318,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>135.07974999999999</v>
+        <v>135.07975000000002</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.64323690476190476</v>
+        <v>0.64323690476190487</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -63405,13 +63405,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>114.05999999999997</v>
+        <v>114.06000000000003</v>
       </c>
       <c r="H68" s="72">
         <v>210</v>
       </c>
       <c r="I68" s="76">
-        <v>0.54314285714285704</v>
+        <v>0.54314285714285726</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -63434,13 +63434,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>141.76624999999996</v>
+        <v>141.76625000000004</v>
       </c>
       <c r="H69" s="72">
         <v>210</v>
       </c>
       <c r="I69" s="76">
-        <v>0.67507738095238079</v>
+        <v>0.67507738095238112</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -63463,13 +63463,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>216.25749999999994</v>
+        <v>216.25749999999979</v>
       </c>
       <c r="H70" s="72">
         <v>350</v>
       </c>
       <c r="I70" s="76">
-        <v>0.61787857142857128</v>
+        <v>0.61787857142857083</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -63492,13 +63492,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>203.20624999999981</v>
+        <v>203.20625000000004</v>
       </c>
       <c r="H71" s="72">
         <v>350</v>
       </c>
       <c r="I71" s="76">
-        <v>0.58058928571428514</v>
+        <v>0.58058928571428581</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -63521,13 +63521,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.395250000000011</v>
+        <v>45.395250000000004</v>
       </c>
       <c r="H72" s="72">
         <v>70</v>
       </c>
       <c r="I72" s="76">
-        <v>0.64850357142857162</v>
+        <v>0.64850357142857151</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -63550,13 +63550,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.678000000000011</v>
+        <v>56.677999999999997</v>
       </c>
       <c r="H73" s="72">
         <v>70</v>
       </c>
       <c r="I73" s="76">
-        <v>0.80968571428571445</v>
+        <v>0.80968571428571423</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -63579,13 +63579,13 @@
         <v>0</v>
       </c>
       <c r="G74" s="72">
-        <v>49.521000000000001</v>
+        <v>49.521000000000022</v>
       </c>
       <c r="H74" s="72">
         <v>70</v>
       </c>
       <c r="I74" s="76">
-        <v>0.70744285714285715</v>
+        <v>0.70744285714285748</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -63608,13 +63608,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="72">
-        <v>19.098750000000003</v>
+        <v>19.098749999999995</v>
       </c>
       <c r="H75" s="72">
         <v>70</v>
       </c>
       <c r="I75" s="76">
-        <v>0.27283928571428573</v>
+        <v>0.27283928571428567</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -63695,13 +63695,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.477750000000007</v>
+        <v>54.477749999999993</v>
       </c>
       <c r="H78" s="72">
         <v>70</v>
       </c>
       <c r="I78" s="76">
-        <v>0.77825357142857154</v>
+        <v>0.77825357142857132</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -63753,13 +63753,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>110.01475000000001</v>
+        <v>110.01475000000002</v>
       </c>
       <c r="H80" s="72">
         <v>140</v>
       </c>
       <c r="I80" s="76">
-        <v>0.7858196428571429</v>
+        <v>0.78581964285714301</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -63811,13 +63811,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>149.80449999999993</v>
+        <v>149.80450000000002</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.71335476190476155</v>
+        <v>0.71335476190476199</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
